--- a/biochemist-python/chapters/data/enzyme_kinetics.xlsx
+++ b/biochemist-python/chapters/data/enzyme_kinetics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pac8612/Desktop/python-scripting-biochemistry/biochemist-python/chapters/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4CD02D-B706-2B44-9F4E-76A88F24DD79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7A210B-72EA-2945-B987-C5F2DAFB7934}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37560" yWindow="3980" windowWidth="30200" windowHeight="17020" xr2:uid="{7FC78297-7CA3-BA42-ABA4-A8E2D6909EAB}"/>
+    <workbookView xWindow="1680" yWindow="3320" windowWidth="30200" windowHeight="17020" xr2:uid="{7FC78297-7CA3-BA42-ABA4-A8E2D6909EAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2327,64 +2327,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>7.3923444976076558E-2</c:v>
+                  <c:v>7.320574162679426E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14928229665071771</c:v>
+                  <c:v>0.14784688995215312</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.22392344497607655</c:v>
+                  <c:v>0.22177033492822965</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2755980861244019</c:v>
+                  <c:v>0.29282296650717704</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.35885167464114831</c:v>
+                  <c:v>0.36602870813397126</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.44354066985645929</c:v>
+                  <c:v>0.40909090909090906</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.51244019138755981</c:v>
+                  <c:v>0.52751196172248804</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.56267942583732056</c:v>
+                  <c:v>0.58564593301435408</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.63947368421052631</c:v>
+                  <c:v>0.61363636363636365</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.68181818181818177</c:v>
+                  <c:v>0.75358851674641147</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.82894736842105265</c:v>
+                  <c:v>0.78157894736842104</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.87846889952153107</c:v>
+                  <c:v>0.84401913875598078</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.91435406698564592</c:v>
+                  <c:v>0.88636363636363635</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0349282296650717</c:v>
+                  <c:v>1.0449760765550238</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1.0334928229665072</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.1712918660287082</c:v>
+                  <c:v>1.1253588516746411</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.1712918660287079</c:v>
+                  <c:v>1.1956937799043061</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.2789473684210526</c:v>
+                  <c:v>1.3306220095693782</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.4318181818181817</c:v>
+                  <c:v>1.418181818181818</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.4784688995215309</c:v>
+                  <c:v>1.5071770334928229</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2487,64 +2487,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>6.8807339449541288E-2</c:v>
+                  <c:v>7.087155963302752E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.13486238532110092</c:v>
+                  <c:v>0.13211009174311927</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.21467889908256879</c:v>
+                  <c:v>0.19610091743119265</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.26697247706422023</c:v>
+                  <c:v>0.26422018348623855</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.34059633027522934</c:v>
+                  <c:v>0.34747706422018348</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.4211009174311926</c:v>
+                  <c:v>0.41284403669724767</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.49128440366972481</c:v>
+                  <c:v>0.48165137614678905</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.54495412844036695</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.61926605504587151</c:v>
+                  <c:v>0.6316513761467889</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.65366972477064222</c:v>
+                  <c:v>0.72247706422018343</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.726605504587156</c:v>
+                  <c:v>0.74931192660550461</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.82568807339449535</c:v>
+                  <c:v>0.83394495412844027</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.87660550458715591</c:v>
+                  <c:v>0.88555045871559634</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.95366972477064227</c:v>
+                  <c:v>0.92477064220183491</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0114678899082568</c:v>
+                  <c:v>1.0837155963302751</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.0568807339449542</c:v>
+                  <c:v>1.0788990825688074</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.1580275229357797</c:v>
+                  <c:v>1.2048165137614679</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.1889908256880732</c:v>
+                  <c:v>1.2633027522935778</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.3727064220183487</c:v>
+                  <c:v>1.3596330275229358</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.3623853211009174</c:v>
+                  <c:v>1.3211009174311927</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2659,64 +2659,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>6.5791139240506322E-2</c:v>
+                  <c:v>6.7784810126582273E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.13424050632911391</c:v>
+                  <c:v>0.13158227848101264</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.20534810126582276</c:v>
+                  <c:v>0.20734177215189872</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.26316455696202529</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.34556962025316451</c:v>
+                  <c:v>0.33892405063291131</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.37879746835443034</c:v>
+                  <c:v>0.41468354430379745</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.48379746835443038</c:v>
+                  <c:v>0.45123417721518988</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.54227848101265819</c:v>
+                  <c:v>0.5156962025316455</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.61604430379746833</c:v>
+                  <c:v>0.59212025316455696</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.69113924050632902</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.72370253164556952</c:v>
+                  <c:v>0.7602531645569619</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.78151898734177205</c:v>
+                  <c:v>0.78949367088607592</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.82072784810126576</c:v>
+                  <c:v>0.88120253164556961</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.95829113924050624</c:v>
+                  <c:v>0.92107594936708859</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.99683544303797456</c:v>
+                  <c:v>1.0367088607594936</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.0739240506329113</c:v>
+                  <c:v>1.0101265822784808</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.1862341772151896</c:v>
+                  <c:v>1.1749367088607592</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.2081645569620252</c:v>
+                  <c:v>1.136392405063291</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.2374050632911391</c:v>
+                  <c:v>1.3131645569620252</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.3025316455696201</c:v>
+                  <c:v>1.2759493670886073</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2834,61 +2834,61 @@
                   <c:v>5.8163265306122446E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1273469387755102</c:v>
+                  <c:v>0.12612244897959182</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.18183673469387757</c:v>
+                  <c:v>0.19285714285714287</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.24</c:v>
+                  <c:v>0.2473469387755102</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.29081632653061223</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.36734693877551022</c:v>
+                  <c:v>0.3563265306122449</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.43285714285714288</c:v>
+                  <c:v>0.43714285714285717</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.48489795918367345</c:v>
+                  <c:v>0.4946938775510204</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.54</c:v>
+                  <c:v>0.5234693877551021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.61224489795918369</c:v>
+                  <c:v>0.61836734693877549</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.69367346938775509</c:v>
+                  <c:v>0.63979591836734695</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.69795918367346943</c:v>
+                  <c:v>0.7567346938775511</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.80387755102040814</c:v>
+                  <c:v>0.79591836734693877</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.81428571428571439</c:v>
+                  <c:v>0.84857142857142864</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.89081632653061216</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.9893877551020408</c:v>
+                  <c:v>0.94040816326530607</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.0304081632653059</c:v>
+                  <c:v>1.0199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.08</c:v>
+                  <c:v>1.0469387755102042</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.2214285714285713</c:v>
+                  <c:v>1.1516326530612244</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.2122448979591838</c:v>
+                  <c:v>1.1632653061224489</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2991,64 +2991,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>4.9655172413793101E-2</c:v>
+                  <c:v>5.3275862068965514E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10758620689655173</c:v>
+                  <c:v>0.10655172413793103</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15051724137931036</c:v>
+                  <c:v>0.15362068965517242</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.19655172413793104</c:v>
+                  <c:v>0.20689655172413793</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.25862068965517243</c:v>
+                  <c:v>0.26120689655172413</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.30103448275862071</c:v>
+                  <c:v>0.29482758620689659</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.34396551724137936</c:v>
+                  <c:v>0.35120689655172421</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.41379310344827586</c:v>
+                  <c:v>0.43448275862068964</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.47017241379310343</c:v>
+                  <c:v>0.44689655172413789</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.52758620689655178</c:v>
+                  <c:v>0.50689655172413794</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.58603448275862069</c:v>
+                  <c:v>0.59172413793103451</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.64551724137931032</c:v>
+                  <c:v>0.60827586206896556</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.66568965517241385</c:v>
+                  <c:v>0.6925862068965517</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.69517241379310357</c:v>
+                  <c:v>0.72413793103448287</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.75258620689655176</c:v>
+                  <c:v>0.7448275862068966</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.79448275862068962</c:v>
+                  <c:v>0.86896551724137927</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.90568965517241384</c:v>
+                  <c:v>0.83534482758620698</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.96827586206896554</c:v>
+                  <c:v>0.91241379310344828</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.98275862068965525</c:v>
+                  <c:v>1.0024137931034482</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.0758620689655174</c:v>
+                  <c:v>1.0241379310344829</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3166,61 +3166,61 @@
                   <c:v>4.0263157894736848E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.8947368421052641E-2</c:v>
+                  <c:v>7.5000000000000011E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.12197368421052632</c:v>
+                  <c:v>0.12315789473684212</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.16105263157894739</c:v>
+                  <c:v>0.15000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.20131578947368423</c:v>
+                  <c:v>0.19736842105263158</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.23684210526315791</c:v>
+                  <c:v>0.24631578947368424</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.27907894736842109</c:v>
+                  <c:v>0.28460526315789475</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.30000000000000004</c:v>
+                  <c:v>0.30947368421052635</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.35526315789473684</c:v>
+                  <c:v>0.34460526315789475</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.38289473684210529</c:v>
+                  <c:v>0.39473684210526316</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.44289473684210529</c:v>
+                  <c:v>0.43855263157894736</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.45947368421052637</c:v>
+                  <c:v>0.45473684210526316</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.52342105263157901</c:v>
+                  <c:v>0.50802631578947377</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.54157894736842116</c:v>
+                  <c:v>0.56368421052631579</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.62171052631578938</c:v>
+                  <c:v>0.5625</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.63789473684210529</c:v>
+                  <c:v>0.63157894736842113</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.65763157894736846</c:v>
+                  <c:v>0.69789473684210535</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.70342105263157895</c:v>
+                  <c:v>0.67500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.74250000000000005</c:v>
+                  <c:v>0.71250000000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.75</c:v>
+                  <c:v>0.82105263157894737</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3339,64 +3339,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>3.1171875000000002E-2</c:v>
+                  <c:v>3.2484375000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6.8906250000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10040625</c:v>
+                  <c:v>9.6468749999999992E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12862500000000002</c:v>
+                  <c:v>0.1273125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16570312500000001</c:v>
+                  <c:v>0.15914062500000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.19884374999999999</c:v>
+                  <c:v>0.19293749999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.22279687499999998</c:v>
+                  <c:v>0.2205</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.25462499999999999</c:v>
+                  <c:v>0.27562500000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.29826562499999998</c:v>
+                  <c:v>0.28054687499999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.315</c:v>
+                  <c:v>0.33140625000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.34649999999999997</c:v>
+                  <c:v>0.37898437499999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.38587499999999997</c:v>
+                  <c:v>0.39768749999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.41376562500000003</c:v>
+                  <c:v>0.44362499999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.46396874999999999</c:v>
+                  <c:v>0.45937499999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.477421875</c:v>
+                  <c:v>0.48726562499999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.54600000000000004</c:v>
+                  <c:v>0.49875000000000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.58570312499999988</c:v>
+                  <c:v>0.56339062499999992</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.61424999999999996</c:v>
+                  <c:v>0.60834374999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.65460937499999994</c:v>
+                  <c:v>0.64837499999999992</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.63656250000000003</c:v>
+                  <c:v>0.63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3515,64 +3515,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>2.192307692307692E-2</c:v>
+                  <c:v>2.3769230769230768E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4.8461538461538459E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.7153846153846147E-2</c:v>
+                  <c:v>6.576923076923076E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.138461538461537E-2</c:v>
+                  <c:v>8.9538461538461525E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.11653846153846152</c:v>
+                  <c:v>0.11999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.13153846153846152</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.15992307692307692</c:v>
+                  <c:v>0.16799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.17907692307692305</c:v>
+                  <c:v>0.18646153846153846</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.21184615384615382</c:v>
+                  <c:v>0.20146153846153844</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.23307692307692304</c:v>
+                  <c:v>0.23076923076923073</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.25384615384615378</c:v>
+                  <c:v>0.24369230769230762</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.28799999999999998</c:v>
+                  <c:v>0.26584615384615379</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.28499999999999998</c:v>
+                  <c:v>0.30599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.31015384615384611</c:v>
+                  <c:v>0.3295384615384615</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.33923076923076917</c:v>
+                  <c:v>0.33230769230769225</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.3692307692307692</c:v>
+                  <c:v>0.36553846153846148</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.38053846153846155</c:v>
+                  <c:v>0.37269230769230771</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.43615384615384611</c:v>
+                  <c:v>0.41953846153846153</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.42969230769230765</c:v>
+                  <c:v>0.44284615384615378</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.44769230769230761</c:v>
+                  <c:v>0.45692307692307682</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3689,64 +3689,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1.35E-2</c:v>
+                  <c:v>1.3363636363636362E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8363636363636362E-2</c:v>
+                  <c:v>2.809090909090909E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.2954545454545447E-2</c:v>
+                  <c:v>4.1727272727272717E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.618181818181818E-2</c:v>
+                  <c:v>5.7272727272727267E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.7499999999999991E-2</c:v>
+                  <c:v>6.6818181818181818E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.9363636363636345E-2</c:v>
+                  <c:v>8.5090909090909078E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.1636363636363627E-2</c:v>
+                  <c:v>9.0681818181818169E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.10363636363636364</c:v>
+                  <c:v>0.10581818181818181</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.12886363636363637</c:v>
+                  <c:v>0.11904545454545454</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.13499999999999998</c:v>
+                  <c:v>0.13909090909090907</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.14699999999999999</c:v>
+                  <c:v>0.153</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.16036363636363635</c:v>
+                  <c:v>0.16854545454545453</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.17727272727272728</c:v>
+                  <c:v>0.17372727272727273</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.18136363636363634</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.19431818181818181</c:v>
+                  <c:v>0.20863636363636362</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.20945454545454545</c:v>
+                  <c:v>0.2138181818181818</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.24109090909090905</c:v>
+                  <c:v>0.22486363636363632</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.23318181818181818</c:v>
+                  <c:v>0.25772727272727275</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.24872727272727274</c:v>
+                  <c:v>0.25650000000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.27272727272727271</c:v>
+                  <c:v>0.25909090909090909</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3865,64 +3865,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1.4045454545454545E-2</c:v>
+                  <c:v>1.3636363636363636E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8636363636363633E-2</c:v>
+                  <c:v>2.6727272727272725E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0909090909090902E-2</c:v>
+                  <c:v>4.2136363636363632E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.2363636363636362E-2</c:v>
+                  <c:v>5.4545454545454543E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.0227272727272722E-2</c:v>
+                  <c:v>6.8181818181818177E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.1818181818181804E-2</c:v>
+                  <c:v>7.9363636363636345E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.2590909090909085E-2</c:v>
+                  <c:v>9.8318181818181805E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.10363636363636364</c:v>
+                  <c:v>0.11236363636363636</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.11659090909090909</c:v>
+                  <c:v>0.11781818181818182</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.14045454545454544</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1515</c:v>
+                  <c:v>0.14249999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.16527272727272724</c:v>
+                  <c:v>0.16363636363636361</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.17904545454545454</c:v>
+                  <c:v>0.18436363636363637</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.20045454545454544</c:v>
+                  <c:v>0.18136363636363634</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.21477272727272725</c:v>
+                  <c:v>0.19431818181818181</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.22690909090909089</c:v>
+                  <c:v>0.22909090909090907</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.22718181818181815</c:v>
+                  <c:v>0.24109090909090905</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.23318181818181818</c:v>
+                  <c:v>0.25281818181818183</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.25909090909090909</c:v>
+                  <c:v>0.26945454545454545</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.27272727272727271</c:v>
+                  <c:v>0.26181818181818178</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4041,61 +4041,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>4.1447368421052627E-3</c:v>
+                  <c:v>3.7499999999999994E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.7368421052631565E-3</c:v>
+                  <c:v>8.2105263157894719E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.1605263157894737E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5315789473684208E-2</c:v>
+                  <c:v>1.6105263157894734E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8947368421052629E-2</c:v>
+                  <c:v>1.9144736842105263E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.368421052631579E-2</c:v>
+                  <c:v>2.2973684210526316E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8460526315789474E-2</c:v>
+                  <c:v>2.7907894736842104E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.189473684210526E-2</c:v>
+                  <c:v>3.2210526315789467E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.5526315789473677E-2</c:v>
+                  <c:v>3.588157894736841E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.0263157894736841E-2</c:v>
+                  <c:v>3.8289473684210526E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.2118421052631576E-2</c:v>
+                  <c:v>4.3421052631578944E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.5473684210526319E-2</c:v>
+                  <c:v>4.9736842105263163E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.131578947368421E-2</c:v>
+                  <c:v>4.9776315789473682E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.3605263157894732E-2</c:v>
+                  <c:v>5.8026315789473683E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.8618421052631577E-2</c:v>
+                  <c:v>6.0986842105263152E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.5684210526315776E-2</c:v>
+                  <c:v>6.3157894736842093E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.5763157894736843E-2</c:v>
+                  <c:v>6.7105263157894737E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.7499999999999991E-2</c:v>
+                  <c:v>7.0342105263157886E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.3499999999999996E-2</c:v>
+                  <c:v>7.4249999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>7.6578947368421052E-2</c:v>
@@ -5816,8 +5816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD913AE-747E-C341-AF89-CB2D285A6A4D}">
   <dimension ref="A1:Z67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:A31"/>
+    <sheetView tabSelected="1" topLeftCell="P8" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="X21" sqref="X21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8077,59 +8077,59 @@
     <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57">
         <f ca="1">C21*RANDBETWEEN($C$52,$C$53)*0.01+C21</f>
-        <v>7.3923444976076558E-2</v>
+        <v>7.320574162679426E-2</v>
       </c>
       <c r="D57">
         <f t="shared" ref="D57:V67" ca="1" si="26">D21*RANDBETWEEN($C$52,$C$53)*0.01+D21</f>
-        <v>0.14928229665071771</v>
+        <v>0.14784688995215312</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="26"/>
-        <v>0.22392344497607655</v>
+        <v>0.22177033492822965</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="26"/>
-        <v>0.2755980861244019</v>
+        <v>0.29282296650717704</v>
       </c>
       <c r="G57">
         <f t="shared" ca="1" si="26"/>
-        <v>0.35885167464114831</v>
+        <v>0.36602870813397126</v>
       </c>
       <c r="H57">
         <f t="shared" ca="1" si="26"/>
-        <v>0.44354066985645929</v>
+        <v>0.40909090909090906</v>
       </c>
       <c r="I57">
         <f t="shared" ca="1" si="26"/>
-        <v>0.51244019138755981</v>
+        <v>0.52751196172248804</v>
       </c>
       <c r="J57">
         <f t="shared" ca="1" si="26"/>
-        <v>0.56267942583732056</v>
+        <v>0.58564593301435408</v>
       </c>
       <c r="K57">
         <f t="shared" ca="1" si="26"/>
-        <v>0.63947368421052631</v>
+        <v>0.61363636363636365</v>
       </c>
       <c r="L57">
         <f t="shared" ca="1" si="26"/>
-        <v>0.68181818181818177</v>
+        <v>0.75358851674641147</v>
       </c>
       <c r="M57">
         <f t="shared" ca="1" si="26"/>
-        <v>0.82894736842105265</v>
+        <v>0.78157894736842104</v>
       </c>
       <c r="N57">
         <f t="shared" ca="1" si="26"/>
-        <v>0.87846889952153107</v>
+        <v>0.84401913875598078</v>
       </c>
       <c r="O57">
         <f t="shared" ca="1" si="26"/>
-        <v>0.91435406698564592</v>
+        <v>0.88636363636363635</v>
       </c>
       <c r="P57">
         <f t="shared" ca="1" si="26"/>
-        <v>1.0349282296650717</v>
+        <v>1.0449760765550238</v>
       </c>
       <c r="Q57">
         <f t="shared" ca="1" si="26"/>
@@ -8137,57 +8137,57 @@
       </c>
       <c r="R57">
         <f t="shared" ca="1" si="26"/>
-        <v>1.1712918660287082</v>
+        <v>1.1253588516746411</v>
       </c>
       <c r="S57">
         <f t="shared" ca="1" si="26"/>
-        <v>1.1712918660287079</v>
+        <v>1.1956937799043061</v>
       </c>
       <c r="T57">
         <f t="shared" ca="1" si="26"/>
-        <v>1.2789473684210526</v>
+        <v>1.3306220095693782</v>
       </c>
       <c r="U57">
         <f t="shared" ca="1" si="26"/>
-        <v>1.4318181818181817</v>
+        <v>1.418181818181818</v>
       </c>
       <c r="V57">
         <f t="shared" ca="1" si="26"/>
-        <v>1.4784688995215309</v>
+        <v>1.5071770334928229</v>
       </c>
       <c r="X57">
         <f ca="1">SLOPE(C57:V57,$C$6:$V$6)/$B$3</f>
-        <v>19.345396985286179</v>
+        <v>19.45432960391409</v>
       </c>
     </row>
     <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58">
         <f t="shared" ref="C58:R67" ca="1" si="27">C22*RANDBETWEEN($C$52,$C$53)*0.01+C22</f>
-        <v>6.8807339449541288E-2</v>
+        <v>7.087155963302752E-2</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="27"/>
-        <v>0.13486238532110092</v>
+        <v>0.13211009174311927</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="27"/>
-        <v>0.21467889908256879</v>
+        <v>0.19610091743119265</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="27"/>
-        <v>0.26697247706422023</v>
+        <v>0.26422018348623855</v>
       </c>
       <c r="G58">
         <f t="shared" ca="1" si="27"/>
-        <v>0.34059633027522934</v>
+        <v>0.34747706422018348</v>
       </c>
       <c r="H58">
         <f t="shared" ca="1" si="27"/>
-        <v>0.4211009174311926</v>
+        <v>0.41284403669724767</v>
       </c>
       <c r="I58">
         <f t="shared" ca="1" si="27"/>
-        <v>0.49128440366972481</v>
+        <v>0.48165137614678905</v>
       </c>
       <c r="J58">
         <f t="shared" ca="1" si="27"/>
@@ -8195,69 +8195,69 @@
       </c>
       <c r="K58">
         <f t="shared" ca="1" si="27"/>
-        <v>0.61926605504587151</v>
+        <v>0.6316513761467889</v>
       </c>
       <c r="L58">
         <f t="shared" ca="1" si="27"/>
-        <v>0.65366972477064222</v>
+        <v>0.72247706422018343</v>
       </c>
       <c r="M58">
         <f t="shared" ca="1" si="27"/>
-        <v>0.726605504587156</v>
+        <v>0.74931192660550461</v>
       </c>
       <c r="N58">
         <f t="shared" ca="1" si="27"/>
-        <v>0.82568807339449535</v>
+        <v>0.83394495412844027</v>
       </c>
       <c r="O58">
         <f t="shared" ca="1" si="27"/>
-        <v>0.87660550458715591</v>
+        <v>0.88555045871559634</v>
       </c>
       <c r="P58">
         <f t="shared" ca="1" si="27"/>
-        <v>0.95366972477064227</v>
+        <v>0.92477064220183491</v>
       </c>
       <c r="Q58">
         <f t="shared" ca="1" si="27"/>
-        <v>1.0114678899082568</v>
+        <v>1.0837155963302751</v>
       </c>
       <c r="R58">
         <f t="shared" ca="1" si="27"/>
-        <v>1.0568807339449542</v>
+        <v>1.0788990825688074</v>
       </c>
       <c r="S58">
         <f t="shared" ca="1" si="26"/>
-        <v>1.1580275229357797</v>
+        <v>1.2048165137614679</v>
       </c>
       <c r="T58">
         <f t="shared" ca="1" si="26"/>
-        <v>1.1889908256880732</v>
+        <v>1.2633027522935778</v>
       </c>
       <c r="U58">
         <f t="shared" ca="1" si="26"/>
-        <v>1.3727064220183487</v>
+        <v>1.3596330275229358</v>
       </c>
       <c r="V58">
         <f t="shared" ca="1" si="26"/>
-        <v>1.3623853211009174</v>
+        <v>1.3211009174311927</v>
       </c>
       <c r="X58">
         <f t="shared" ref="X58:X67" ca="1" si="28">SLOPE(C58:V58,$C$6:$V$6)/$B$3</f>
-        <v>18.165275574256743</v>
+        <v>18.522314961716216</v>
       </c>
     </row>
     <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59">
         <f t="shared" ca="1" si="27"/>
-        <v>6.5791139240506322E-2</v>
+        <v>6.7784810126582273E-2</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="26"/>
-        <v>0.13424050632911391</v>
+        <v>0.13158227848101264</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="26"/>
-        <v>0.20534810126582276</v>
+        <v>0.20734177215189872</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="26"/>
@@ -8265,23 +8265,23 @@
       </c>
       <c r="G59">
         <f t="shared" ca="1" si="26"/>
-        <v>0.34556962025316451</v>
+        <v>0.33892405063291131</v>
       </c>
       <c r="H59">
         <f t="shared" ca="1" si="26"/>
-        <v>0.37879746835443034</v>
+        <v>0.41468354430379745</v>
       </c>
       <c r="I59">
         <f t="shared" ca="1" si="26"/>
-        <v>0.48379746835443038</v>
+        <v>0.45123417721518988</v>
       </c>
       <c r="J59">
         <f t="shared" ca="1" si="26"/>
-        <v>0.54227848101265819</v>
+        <v>0.5156962025316455</v>
       </c>
       <c r="K59">
         <f t="shared" ca="1" si="26"/>
-        <v>0.61604430379746833</v>
+        <v>0.59212025316455696</v>
       </c>
       <c r="L59">
         <f t="shared" ca="1" si="26"/>
@@ -8289,47 +8289,47 @@
       </c>
       <c r="M59">
         <f t="shared" ca="1" si="26"/>
-        <v>0.72370253164556952</v>
+        <v>0.7602531645569619</v>
       </c>
       <c r="N59">
         <f t="shared" ca="1" si="26"/>
-        <v>0.78151898734177205</v>
+        <v>0.78949367088607592</v>
       </c>
       <c r="O59">
         <f t="shared" ca="1" si="26"/>
-        <v>0.82072784810126576</v>
+        <v>0.88120253164556961</v>
       </c>
       <c r="P59">
         <f t="shared" ca="1" si="26"/>
-        <v>0.95829113924050624</v>
+        <v>0.92107594936708859</v>
       </c>
       <c r="Q59">
         <f t="shared" ca="1" si="26"/>
-        <v>0.99683544303797456</v>
+        <v>1.0367088607594936</v>
       </c>
       <c r="R59">
         <f t="shared" ca="1" si="26"/>
-        <v>1.0739240506329113</v>
+        <v>1.0101265822784808</v>
       </c>
       <c r="S59">
         <f t="shared" ca="1" si="26"/>
-        <v>1.1862341772151896</v>
+        <v>1.1749367088607592</v>
       </c>
       <c r="T59">
         <f t="shared" ca="1" si="26"/>
-        <v>1.2081645569620252</v>
+        <v>1.136392405063291</v>
       </c>
       <c r="U59">
         <f t="shared" ca="1" si="26"/>
-        <v>1.2374050632911391</v>
+        <v>1.3131645569620252</v>
       </c>
       <c r="V59">
         <f t="shared" ca="1" si="26"/>
-        <v>1.3025316455696201</v>
+        <v>1.2759493670886073</v>
       </c>
       <c r="X59">
         <f t="shared" ca="1" si="28"/>
-        <v>17.666355762824779</v>
+        <v>17.56189207195203</v>
       </c>
     </row>
     <row r="60" spans="3:24" x14ac:dyDescent="0.2">
@@ -8339,55 +8339,55 @@
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="26"/>
-        <v>0.1273469387755102</v>
+        <v>0.12612244897959182</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="26"/>
-        <v>0.18183673469387757</v>
+        <v>0.19285714285714287</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="26"/>
-        <v>0.24</v>
+        <v>0.2473469387755102</v>
       </c>
       <c r="G60">
         <f t="shared" ca="1" si="26"/>
-        <v>0.29081632653061223</v>
+        <v>0.3</v>
       </c>
       <c r="H60">
         <f t="shared" ca="1" si="26"/>
-        <v>0.36734693877551022</v>
+        <v>0.3563265306122449</v>
       </c>
       <c r="I60">
         <f t="shared" ca="1" si="26"/>
-        <v>0.43285714285714288</v>
+        <v>0.43714285714285717</v>
       </c>
       <c r="J60">
         <f t="shared" ca="1" si="26"/>
-        <v>0.48489795918367345</v>
+        <v>0.4946938775510204</v>
       </c>
       <c r="K60">
         <f t="shared" ca="1" si="26"/>
-        <v>0.54</v>
+        <v>0.5234693877551021</v>
       </c>
       <c r="L60">
         <f t="shared" ca="1" si="26"/>
-        <v>0.61224489795918369</v>
+        <v>0.61836734693877549</v>
       </c>
       <c r="M60">
         <f t="shared" ca="1" si="26"/>
-        <v>0.69367346938775509</v>
+        <v>0.63979591836734695</v>
       </c>
       <c r="N60">
         <f t="shared" ca="1" si="26"/>
-        <v>0.69795918367346943</v>
+        <v>0.7567346938775511</v>
       </c>
       <c r="O60">
         <f t="shared" ca="1" si="26"/>
-        <v>0.80387755102040814</v>
+        <v>0.79591836734693877</v>
       </c>
       <c r="P60">
         <f t="shared" ca="1" si="26"/>
-        <v>0.81428571428571439</v>
+        <v>0.84857142857142864</v>
       </c>
       <c r="Q60">
         <f t="shared" ca="1" si="26"/>
@@ -8395,113 +8395,113 @@
       </c>
       <c r="R60">
         <f t="shared" ca="1" si="26"/>
-        <v>0.9893877551020408</v>
+        <v>0.94040816326530607</v>
       </c>
       <c r="S60">
         <f t="shared" ca="1" si="26"/>
-        <v>1.0304081632653059</v>
+        <v>1.0199999999999998</v>
       </c>
       <c r="T60">
         <f t="shared" ca="1" si="26"/>
-        <v>1.08</v>
+        <v>1.0469387755102042</v>
       </c>
       <c r="U60">
         <f t="shared" ca="1" si="26"/>
-        <v>1.2214285714285713</v>
+        <v>1.1516326530612244</v>
       </c>
       <c r="V60">
         <f t="shared" ca="1" si="26"/>
-        <v>1.2122448979591838</v>
+        <v>1.1632653061224489</v>
       </c>
       <c r="X60">
         <f t="shared" ca="1" si="28"/>
-        <v>16.338928955040657</v>
+        <v>15.688936627282494</v>
       </c>
     </row>
     <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61">
         <f t="shared" ca="1" si="27"/>
-        <v>4.9655172413793101E-2</v>
+        <v>5.3275862068965514E-2</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="26"/>
-        <v>0.10758620689655173</v>
+        <v>0.10655172413793103</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="26"/>
-        <v>0.15051724137931036</v>
+        <v>0.15362068965517242</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="26"/>
-        <v>0.19655172413793104</v>
+        <v>0.20689655172413793</v>
       </c>
       <c r="G61">
         <f t="shared" ca="1" si="26"/>
-        <v>0.25862068965517243</v>
+        <v>0.26120689655172413</v>
       </c>
       <c r="H61">
         <f t="shared" ca="1" si="26"/>
-        <v>0.30103448275862071</v>
+        <v>0.29482758620689659</v>
       </c>
       <c r="I61">
         <f t="shared" ca="1" si="26"/>
-        <v>0.34396551724137936</v>
+        <v>0.35120689655172421</v>
       </c>
       <c r="J61">
         <f t="shared" ca="1" si="26"/>
-        <v>0.41379310344827586</v>
+        <v>0.43448275862068964</v>
       </c>
       <c r="K61">
         <f t="shared" ca="1" si="26"/>
-        <v>0.47017241379310343</v>
+        <v>0.44689655172413789</v>
       </c>
       <c r="L61">
         <f t="shared" ca="1" si="26"/>
-        <v>0.52758620689655178</v>
+        <v>0.50689655172413794</v>
       </c>
       <c r="M61">
         <f t="shared" ca="1" si="26"/>
-        <v>0.58603448275862069</v>
+        <v>0.59172413793103451</v>
       </c>
       <c r="N61">
         <f t="shared" ca="1" si="26"/>
-        <v>0.64551724137931032</v>
+        <v>0.60827586206896556</v>
       </c>
       <c r="O61">
         <f t="shared" ca="1" si="26"/>
-        <v>0.66568965517241385</v>
+        <v>0.6925862068965517</v>
       </c>
       <c r="P61">
         <f t="shared" ca="1" si="26"/>
-        <v>0.69517241379310357</v>
+        <v>0.72413793103448287</v>
       </c>
       <c r="Q61">
         <f t="shared" ca="1" si="26"/>
-        <v>0.75258620689655176</v>
+        <v>0.7448275862068966</v>
       </c>
       <c r="R61">
         <f t="shared" ca="1" si="26"/>
-        <v>0.79448275862068962</v>
+        <v>0.86896551724137927</v>
       </c>
       <c r="S61">
         <f t="shared" ca="1" si="26"/>
-        <v>0.90568965517241384</v>
+        <v>0.83534482758620698</v>
       </c>
       <c r="T61">
         <f t="shared" ca="1" si="26"/>
-        <v>0.96827586206896554</v>
+        <v>0.91241379310344828</v>
       </c>
       <c r="U61">
         <f t="shared" ca="1" si="26"/>
-        <v>0.98275862068965525</v>
+        <v>1.0024137931034482</v>
       </c>
       <c r="V61">
         <f t="shared" ca="1" si="26"/>
-        <v>1.0758620689655174</v>
+        <v>1.0241379310344829</v>
       </c>
       <c r="X61">
         <f t="shared" ca="1" si="28"/>
-        <v>14.059528130671508</v>
+        <v>13.720922997148044</v>
       </c>
     </row>
     <row r="62" spans="3:24" x14ac:dyDescent="0.2">
@@ -8511,89 +8511,89 @@
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="26"/>
-        <v>7.8947368421052641E-2</v>
+        <v>7.5000000000000011E-2</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="26"/>
-        <v>0.12197368421052632</v>
+        <v>0.12315789473684212</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="26"/>
-        <v>0.16105263157894739</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="G62">
         <f t="shared" ca="1" si="26"/>
-        <v>0.20131578947368423</v>
+        <v>0.19736842105263158</v>
       </c>
       <c r="H62">
         <f t="shared" ca="1" si="26"/>
-        <v>0.23684210526315791</v>
+        <v>0.24631578947368424</v>
       </c>
       <c r="I62">
         <f t="shared" ca="1" si="26"/>
-        <v>0.27907894736842109</v>
+        <v>0.28460526315789475</v>
       </c>
       <c r="J62">
         <f t="shared" ca="1" si="26"/>
-        <v>0.30000000000000004</v>
+        <v>0.30947368421052635</v>
       </c>
       <c r="K62">
         <f t="shared" ca="1" si="26"/>
-        <v>0.35526315789473684</v>
+        <v>0.34460526315789475</v>
       </c>
       <c r="L62">
         <f t="shared" ca="1" si="26"/>
-        <v>0.38289473684210529</v>
+        <v>0.39473684210526316</v>
       </c>
       <c r="M62">
         <f t="shared" ca="1" si="26"/>
-        <v>0.44289473684210529</v>
+        <v>0.43855263157894736</v>
       </c>
       <c r="N62">
         <f t="shared" ca="1" si="26"/>
-        <v>0.45947368421052637</v>
+        <v>0.45473684210526316</v>
       </c>
       <c r="O62">
         <f t="shared" ca="1" si="26"/>
-        <v>0.52342105263157901</v>
+        <v>0.50802631578947377</v>
       </c>
       <c r="P62">
         <f t="shared" ca="1" si="26"/>
-        <v>0.54157894736842116</v>
+        <v>0.56368421052631579</v>
       </c>
       <c r="Q62">
         <f t="shared" ca="1" si="26"/>
-        <v>0.62171052631578938</v>
+        <v>0.5625</v>
       </c>
       <c r="R62">
         <f t="shared" ca="1" si="26"/>
-        <v>0.63789473684210529</v>
+        <v>0.63157894736842113</v>
       </c>
       <c r="S62">
         <f t="shared" ca="1" si="26"/>
-        <v>0.65763157894736846</v>
+        <v>0.69789473684210535</v>
       </c>
       <c r="T62">
         <f t="shared" ca="1" si="26"/>
-        <v>0.70342105263157895</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="U62">
         <f t="shared" ca="1" si="26"/>
-        <v>0.74250000000000005</v>
+        <v>0.71250000000000002</v>
       </c>
       <c r="V62">
         <f t="shared" ca="1" si="26"/>
-        <v>0.75</v>
+        <v>0.82105263157894737</v>
       </c>
       <c r="X62">
         <f t="shared" ca="1" si="28"/>
-        <v>10.333043134151172</v>
+        <v>10.429125445191929</v>
       </c>
     </row>
     <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63">
         <f t="shared" ca="1" si="27"/>
-        <v>3.1171875000000002E-2</v>
+        <v>3.2484375000000003E-2</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="26"/>
@@ -8601,85 +8601,85 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="26"/>
-        <v>0.10040625</v>
+        <v>9.6468749999999992E-2</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="26"/>
-        <v>0.12862500000000002</v>
+        <v>0.1273125</v>
       </c>
       <c r="G63">
         <f t="shared" ca="1" si="26"/>
-        <v>0.16570312500000001</v>
+        <v>0.15914062500000001</v>
       </c>
       <c r="H63">
         <f t="shared" ca="1" si="26"/>
-        <v>0.19884374999999999</v>
+        <v>0.19293749999999998</v>
       </c>
       <c r="I63">
         <f t="shared" ca="1" si="26"/>
-        <v>0.22279687499999998</v>
+        <v>0.2205</v>
       </c>
       <c r="J63">
         <f t="shared" ca="1" si="26"/>
-        <v>0.25462499999999999</v>
+        <v>0.27562500000000001</v>
       </c>
       <c r="K63">
         <f t="shared" ca="1" si="26"/>
-        <v>0.29826562499999998</v>
+        <v>0.28054687499999997</v>
       </c>
       <c r="L63">
         <f t="shared" ca="1" si="26"/>
-        <v>0.315</v>
+        <v>0.33140625000000001</v>
       </c>
       <c r="M63">
         <f t="shared" ca="1" si="26"/>
-        <v>0.34649999999999997</v>
+        <v>0.37898437499999998</v>
       </c>
       <c r="N63">
         <f t="shared" ca="1" si="26"/>
-        <v>0.38587499999999997</v>
+        <v>0.39768749999999997</v>
       </c>
       <c r="O63">
         <f t="shared" ca="1" si="26"/>
-        <v>0.41376562500000003</v>
+        <v>0.44362499999999999</v>
       </c>
       <c r="P63">
         <f t="shared" ca="1" si="26"/>
-        <v>0.46396874999999999</v>
+        <v>0.45937499999999998</v>
       </c>
       <c r="Q63">
         <f t="shared" ca="1" si="26"/>
-        <v>0.477421875</v>
+        <v>0.48726562499999998</v>
       </c>
       <c r="R63">
         <f t="shared" ca="1" si="26"/>
-        <v>0.54600000000000004</v>
+        <v>0.49875000000000003</v>
       </c>
       <c r="S63">
         <f t="shared" ca="1" si="26"/>
-        <v>0.58570312499999988</v>
+        <v>0.56339062499999992</v>
       </c>
       <c r="T63">
         <f t="shared" ca="1" si="26"/>
-        <v>0.61424999999999996</v>
+        <v>0.60834374999999996</v>
       </c>
       <c r="U63">
         <f t="shared" ca="1" si="26"/>
-        <v>0.65460937499999994</v>
+        <v>0.64837499999999992</v>
       </c>
       <c r="V63">
         <f t="shared" ca="1" si="26"/>
-        <v>0.63656250000000003</v>
+        <v>0.63</v>
       </c>
       <c r="X63">
         <f t="shared" ca="1" si="28"/>
-        <v>8.9378947368421056</v>
+        <v>8.791315789473682</v>
       </c>
     </row>
     <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64">
         <f t="shared" ca="1" si="27"/>
-        <v>2.192307692307692E-2</v>
+        <v>2.3769230769230768E-2</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="26"/>
@@ -8687,15 +8687,15 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="26"/>
-        <v>6.7153846153846147E-2</v>
+        <v>6.576923076923076E-2</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="26"/>
-        <v>9.138461538461537E-2</v>
+        <v>8.9538461538461525E-2</v>
       </c>
       <c r="G64">
         <f t="shared" ca="1" si="26"/>
-        <v>0.11653846153846152</v>
+        <v>0.11999999999999998</v>
       </c>
       <c r="H64">
         <f t="shared" ca="1" si="26"/>
@@ -8703,117 +8703,117 @@
       </c>
       <c r="I64">
         <f t="shared" ca="1" si="26"/>
-        <v>0.15992307692307692</v>
+        <v>0.16799999999999998</v>
       </c>
       <c r="J64">
         <f t="shared" ca="1" si="26"/>
-        <v>0.17907692307692305</v>
+        <v>0.18646153846153846</v>
       </c>
       <c r="K64">
         <f t="shared" ca="1" si="26"/>
-        <v>0.21184615384615382</v>
+        <v>0.20146153846153844</v>
       </c>
       <c r="L64">
         <f t="shared" ca="1" si="26"/>
-        <v>0.23307692307692304</v>
+        <v>0.23076923076923073</v>
       </c>
       <c r="M64">
         <f t="shared" ca="1" si="26"/>
-        <v>0.25384615384615378</v>
+        <v>0.24369230769230762</v>
       </c>
       <c r="N64">
         <f t="shared" ca="1" si="26"/>
-        <v>0.28799999999999998</v>
+        <v>0.26584615384615379</v>
       </c>
       <c r="O64">
         <f t="shared" ca="1" si="26"/>
-        <v>0.28499999999999998</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="P64">
         <f t="shared" ca="1" si="26"/>
-        <v>0.31015384615384611</v>
+        <v>0.3295384615384615</v>
       </c>
       <c r="Q64">
         <f t="shared" ca="1" si="26"/>
-        <v>0.33923076923076917</v>
+        <v>0.33230769230769225</v>
       </c>
       <c r="R64">
         <f t="shared" ca="1" si="26"/>
-        <v>0.3692307692307692</v>
+        <v>0.36553846153846148</v>
       </c>
       <c r="S64">
         <f t="shared" ca="1" si="26"/>
-        <v>0.38053846153846155</v>
+        <v>0.37269230769230771</v>
       </c>
       <c r="T64">
         <f t="shared" ca="1" si="26"/>
-        <v>0.43615384615384611</v>
+        <v>0.41953846153846153</v>
       </c>
       <c r="U64">
         <f t="shared" ca="1" si="26"/>
-        <v>0.42969230769230765</v>
+        <v>0.44284615384615378</v>
       </c>
       <c r="V64">
         <f t="shared" ca="1" si="26"/>
-        <v>0.44769230769230761</v>
+        <v>0.45692307692307682</v>
       </c>
       <c r="X64">
         <f t="shared" ca="1" si="28"/>
-        <v>6.0839791787160191</v>
+        <v>6.0880971659919032</v>
       </c>
     </row>
     <row r="65" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C65">
         <f t="shared" ca="1" si="27"/>
-        <v>1.35E-2</v>
+        <v>1.3363636363636362E-2</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="26"/>
-        <v>2.8363636363636362E-2</v>
+        <v>2.809090909090909E-2</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="26"/>
-        <v>4.2954545454545447E-2</v>
+        <v>4.1727272727272717E-2</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="26"/>
-        <v>5.618181818181818E-2</v>
+        <v>5.7272727272727267E-2</v>
       </c>
       <c r="G65">
         <f t="shared" ca="1" si="26"/>
-        <v>6.7499999999999991E-2</v>
+        <v>6.6818181818181818E-2</v>
       </c>
       <c r="H65">
         <f t="shared" ca="1" si="26"/>
-        <v>7.9363636363636345E-2</v>
+        <v>8.5090909090909078E-2</v>
       </c>
       <c r="I65">
         <f t="shared" ca="1" si="26"/>
-        <v>9.1636363636363627E-2</v>
+        <v>9.0681818181818169E-2</v>
       </c>
       <c r="J65">
         <f t="shared" ca="1" si="26"/>
-        <v>0.10363636363636364</v>
+        <v>0.10581818181818181</v>
       </c>
       <c r="K65">
         <f t="shared" ca="1" si="26"/>
-        <v>0.12886363636363637</v>
+        <v>0.11904545454545454</v>
       </c>
       <c r="L65">
         <f t="shared" ca="1" si="26"/>
-        <v>0.13499999999999998</v>
+        <v>0.13909090909090907</v>
       </c>
       <c r="M65">
         <f t="shared" ca="1" si="26"/>
-        <v>0.14699999999999999</v>
+        <v>0.153</v>
       </c>
       <c r="N65">
         <f t="shared" ca="1" si="26"/>
-        <v>0.16036363636363635</v>
+        <v>0.16854545454545453</v>
       </c>
       <c r="O65">
         <f t="shared" ca="1" si="26"/>
-        <v>0.17727272727272728</v>
+        <v>0.17372727272727273</v>
       </c>
       <c r="P65">
         <f t="shared" ca="1" si="26"/>
@@ -8821,69 +8821,69 @@
       </c>
       <c r="Q65">
         <f t="shared" ca="1" si="26"/>
-        <v>0.19431818181818181</v>
+        <v>0.20863636363636362</v>
       </c>
       <c r="R65">
         <f t="shared" ca="1" si="26"/>
-        <v>0.20945454545454545</v>
+        <v>0.2138181818181818</v>
       </c>
       <c r="S65">
         <f t="shared" ca="1" si="26"/>
-        <v>0.24109090909090905</v>
+        <v>0.22486363636363632</v>
       </c>
       <c r="T65">
         <f t="shared" ca="1" si="26"/>
-        <v>0.23318181818181818</v>
+        <v>0.25772727272727275</v>
       </c>
       <c r="U65">
         <f t="shared" ca="1" si="26"/>
-        <v>0.24872727272727274</v>
+        <v>0.25650000000000001</v>
       </c>
       <c r="V65">
         <f t="shared" ca="1" si="26"/>
-        <v>0.27272727272727271</v>
+        <v>0.25909090909090909</v>
       </c>
       <c r="X65">
         <f t="shared" ca="1" si="28"/>
-        <v>3.5343540669856464</v>
+        <v>3.5761585782638408</v>
       </c>
     </row>
     <row r="66" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C66">
         <f t="shared" ca="1" si="27"/>
-        <v>1.4045454545454545E-2</v>
+        <v>1.3636363636363636E-2</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="26"/>
-        <v>2.8636363636363633E-2</v>
+        <v>2.6727272727272725E-2</v>
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="26"/>
-        <v>4.0909090909090902E-2</v>
+        <v>4.2136363636363632E-2</v>
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="26"/>
-        <v>5.2363636363636362E-2</v>
+        <v>5.4545454545454543E-2</v>
       </c>
       <c r="G66">
         <f t="shared" ca="1" si="26"/>
-        <v>7.0227272727272722E-2</v>
+        <v>6.8181818181818177E-2</v>
       </c>
       <c r="H66">
         <f t="shared" ca="1" si="26"/>
-        <v>8.1818181818181804E-2</v>
+        <v>7.9363636363636345E-2</v>
       </c>
       <c r="I66">
         <f t="shared" ca="1" si="26"/>
-        <v>9.2590909090909085E-2</v>
+        <v>9.8318181818181805E-2</v>
       </c>
       <c r="J66">
         <f t="shared" ca="1" si="26"/>
-        <v>0.10363636363636364</v>
+        <v>0.11236363636363636</v>
       </c>
       <c r="K66">
         <f t="shared" ca="1" si="26"/>
-        <v>0.11659090909090909</v>
+        <v>0.11781818181818182</v>
       </c>
       <c r="L66">
         <f t="shared" ca="1" si="26"/>
@@ -8891,57 +8891,57 @@
       </c>
       <c r="M66">
         <f t="shared" ca="1" si="26"/>
-        <v>0.1515</v>
+        <v>0.14249999999999999</v>
       </c>
       <c r="N66">
         <f t="shared" ca="1" si="26"/>
-        <v>0.16527272727272724</v>
+        <v>0.16363636363636361</v>
       </c>
       <c r="O66">
         <f t="shared" ca="1" si="26"/>
-        <v>0.17904545454545454</v>
+        <v>0.18436363636363637</v>
       </c>
       <c r="P66">
         <f t="shared" ca="1" si="26"/>
-        <v>0.20045454545454544</v>
+        <v>0.18136363636363634</v>
       </c>
       <c r="Q66">
         <f t="shared" ca="1" si="26"/>
-        <v>0.21477272727272725</v>
+        <v>0.19431818181818181</v>
       </c>
       <c r="R66">
         <f t="shared" ca="1" si="26"/>
-        <v>0.22690909090909089</v>
+        <v>0.22909090909090907</v>
       </c>
       <c r="S66">
         <f t="shared" ca="1" si="26"/>
-        <v>0.22718181818181815</v>
+        <v>0.24109090909090905</v>
       </c>
       <c r="T66">
         <f t="shared" ca="1" si="26"/>
-        <v>0.23318181818181818</v>
+        <v>0.25281818181818183</v>
       </c>
       <c r="U66">
         <f t="shared" ca="1" si="26"/>
-        <v>0.25909090909090909</v>
+        <v>0.26945454545454545</v>
       </c>
       <c r="V66">
         <f t="shared" ca="1" si="26"/>
-        <v>0.27272727272727271</v>
+        <v>0.26181818181818178</v>
       </c>
       <c r="X66">
         <f t="shared" ca="1" si="28"/>
-        <v>3.6488585099111415</v>
+        <v>3.6716883116883117</v>
       </c>
     </row>
     <row r="67" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C67">
         <f t="shared" ca="1" si="27"/>
-        <v>4.1447368421052627E-3</v>
+        <v>3.7499999999999994E-3</v>
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="26"/>
-        <v>7.7368421052631565E-3</v>
+        <v>8.2105263157894719E-3</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="26"/>
@@ -8949,67 +8949,67 @@
       </c>
       <c r="F67">
         <f t="shared" ca="1" si="26"/>
-        <v>1.5315789473684208E-2</v>
+        <v>1.6105263157894734E-2</v>
       </c>
       <c r="G67">
         <f t="shared" ca="1" si="26"/>
-        <v>1.8947368421052629E-2</v>
+        <v>1.9144736842105263E-2</v>
       </c>
       <c r="H67">
         <f t="shared" ca="1" si="26"/>
-        <v>2.368421052631579E-2</v>
+        <v>2.2973684210526316E-2</v>
       </c>
       <c r="I67">
         <f t="shared" ca="1" si="26"/>
-        <v>2.8460526315789474E-2</v>
+        <v>2.7907894736842104E-2</v>
       </c>
       <c r="J67">
         <f t="shared" ca="1" si="26"/>
-        <v>3.189473684210526E-2</v>
+        <v>3.2210526315789467E-2</v>
       </c>
       <c r="K67">
         <f t="shared" ca="1" si="26"/>
-        <v>3.5526315789473677E-2</v>
+        <v>3.588157894736841E-2</v>
       </c>
       <c r="L67">
         <f t="shared" ca="1" si="26"/>
-        <v>4.0263157894736841E-2</v>
+        <v>3.8289473684210526E-2</v>
       </c>
       <c r="M67">
         <f t="shared" ca="1" si="26"/>
-        <v>4.2118421052631576E-2</v>
+        <v>4.3421052631578944E-2</v>
       </c>
       <c r="N67">
         <f t="shared" ca="1" si="26"/>
-        <v>4.5473684210526319E-2</v>
+        <v>4.9736842105263163E-2</v>
       </c>
       <c r="O67">
         <f t="shared" ca="1" si="26"/>
-        <v>5.131578947368421E-2</v>
+        <v>4.9776315789473682E-2</v>
       </c>
       <c r="P67">
         <f t="shared" ca="1" si="26"/>
-        <v>5.3605263157894732E-2</v>
+        <v>5.8026315789473683E-2</v>
       </c>
       <c r="Q67">
         <f t="shared" ca="1" si="26"/>
-        <v>5.8618421052631577E-2</v>
+        <v>6.0986842105263152E-2</v>
       </c>
       <c r="R67">
         <f t="shared" ca="1" si="26"/>
-        <v>6.5684210526315776E-2</v>
+        <v>6.3157894736842093E-2</v>
       </c>
       <c r="S67">
         <f t="shared" ca="1" si="26"/>
-        <v>6.5763157894736843E-2</v>
+        <v>6.7105263157894737E-2</v>
       </c>
       <c r="T67">
         <f t="shared" ca="1" si="26"/>
-        <v>6.7499999999999991E-2</v>
+        <v>7.0342105263157886E-2</v>
       </c>
       <c r="U67">
         <f t="shared" ca="1" si="26"/>
-        <v>7.3499999999999996E-2</v>
+        <v>7.4249999999999997E-2</v>
       </c>
       <c r="V67">
         <f t="shared" ca="1" si="26"/>
@@ -9017,7 +9017,7 @@
       </c>
       <c r="X67">
         <f t="shared" ca="1" si="28"/>
-        <v>1.0269252077562325</v>
+        <v>1.0470360110803325</v>
       </c>
     </row>
   </sheetData>

--- a/biochemist-python/chapters/data/enzyme_kinetics.xlsx
+++ b/biochemist-python/chapters/data/enzyme_kinetics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pac8612/Desktop/python-scripting-biochemistry/biochemist-python/chapters/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7A210B-72EA-2945-B987-C5F2DAFB7934}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A248005-C576-154A-9374-BA90B1CF7896}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1680" yWindow="3320" windowWidth="30200" windowHeight="17020" xr2:uid="{7FC78297-7CA3-BA42-ABA4-A8E2D6909EAB}"/>
   </bookViews>
@@ -260,64 +260,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>4.7846889952153111</c:v>
+                  <c:v>8.6475023562676725</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.5693779904306222</c:v>
+                  <c:v>17.295004712535345</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.354066985645932</c:v>
+                  <c:v>25.942507068803017</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.138755980861244</c:v>
+                  <c:v>34.59000942507069</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.923444976076556</c:v>
+                  <c:v>43.237511781338362</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.708133971291865</c:v>
+                  <c:v>51.885014137606035</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.492822966507177</c:v>
+                  <c:v>60.532516493873707</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>38.277511961722489</c:v>
+                  <c:v>69.18001885014138</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43.062200956937801</c:v>
+                  <c:v>77.827521206409045</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>47.846889952153113</c:v>
+                  <c:v>86.475023562676725</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>52.631578947368425</c:v>
+                  <c:v>95.122525918944405</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>57.41626794258373</c:v>
+                  <c:v>103.77002827521207</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>62.200956937799042</c:v>
+                  <c:v>112.41753063147974</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>66.985645933014354</c:v>
+                  <c:v>121.06503298774741</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>71.770334928229673</c:v>
+                  <c:v>129.71253534401509</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>76.555023923444978</c:v>
+                  <c:v>138.36003770028276</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>81.339712918660283</c:v>
+                  <c:v>147.00754005655043</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>86.124401913875602</c:v>
+                  <c:v>155.65504241281809</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>90.909090909090907</c:v>
+                  <c:v>164.30254476908578</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>95.693779904306226</c:v>
+                  <c:v>172.95004712535345</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -420,64 +420,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>4.5871559633027523</c:v>
+                  <c:v>8.1773618538324424</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.1743119266055047</c:v>
+                  <c:v>16.354723707664885</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.761467889908257</c:v>
+                  <c:v>24.532085561497325</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.348623853211009</c:v>
+                  <c:v>32.70944741532977</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.935779816513762</c:v>
+                  <c:v>40.886809269162214</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27.522935779816514</c:v>
+                  <c:v>49.064171122994651</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.11009174311927</c:v>
+                  <c:v>57.241532976827095</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36.697247706422019</c:v>
+                  <c:v>65.418894830659539</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41.284403669724767</c:v>
+                  <c:v>73.596256684491976</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45.871559633027523</c:v>
+                  <c:v>81.773618538324428</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>50.458715596330279</c:v>
+                  <c:v>89.950980392156865</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>55.045871559633028</c:v>
+                  <c:v>98.128342245989302</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>59.633027522935777</c:v>
+                  <c:v>106.30570409982175</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>64.22018348623854</c:v>
+                  <c:v>114.48306595365419</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>68.807339449541288</c:v>
+                  <c:v>122.66042780748664</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>73.394495412844037</c:v>
+                  <c:v>130.83778966131908</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>77.981651376146786</c:v>
+                  <c:v>139.01515151515153</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>82.568807339449535</c:v>
+                  <c:v>147.19251336898395</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>87.155963302752298</c:v>
+                  <c:v>155.3698752228164</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>91.743119266055047</c:v>
+                  <c:v>163.54723707664886</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -580,64 +580,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>4.4303797468354427</c:v>
+                  <c:v>7.8132603406326036</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.8607594936708853</c:v>
+                  <c:v>15.626520681265207</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.291139240506329</c:v>
+                  <c:v>23.439781021897812</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.721518987341771</c:v>
+                  <c:v>31.253041362530414</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.151898734177212</c:v>
+                  <c:v>39.06630170316302</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26.582278481012658</c:v>
+                  <c:v>46.879562043795623</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31.0126582278481</c:v>
+                  <c:v>54.692822384428226</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35.443037974683541</c:v>
+                  <c:v>62.506082725060828</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39.873417721518983</c:v>
+                  <c:v>70.319343065693431</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44.303797468354425</c:v>
+                  <c:v>78.132603406326041</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>48.734177215189867</c:v>
+                  <c:v>85.945863746958636</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>53.164556962025316</c:v>
+                  <c:v>93.759124087591246</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>57.594936708860757</c:v>
+                  <c:v>101.57238442822384</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>62.025316455696199</c:v>
+                  <c:v>109.38564476885645</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>66.455696202531641</c:v>
+                  <c:v>117.19890510948905</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>70.886075949367083</c:v>
+                  <c:v>125.01216545012166</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>75.316455696202524</c:v>
+                  <c:v>132.82542579075425</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>79.746835443037966</c:v>
+                  <c:v>140.63868613138686</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>84.177215189873408</c:v>
+                  <c:v>148.45194647201947</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>88.60759493670885</c:v>
+                  <c:v>156.26520681265208</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -740,64 +740,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>4.0816326530612246</c:v>
+                  <c:v>7.0306513409961697</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.1632653061224492</c:v>
+                  <c:v>14.061302681992339</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.244897959183675</c:v>
+                  <c:v>21.09195402298851</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.326530612244898</c:v>
+                  <c:v>28.122605363984679</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.408163265306122</c:v>
+                  <c:v>35.153256704980848</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.489795918367349</c:v>
+                  <c:v>42.18390804597702</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28.571428571428573</c:v>
+                  <c:v>49.214559386973185</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32.653061224489797</c:v>
+                  <c:v>56.245210727969358</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36.734693877551024</c:v>
+                  <c:v>63.27586206896553</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40.816326530612244</c:v>
+                  <c:v>70.306513409961696</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44.897959183673471</c:v>
+                  <c:v>77.337164750957868</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>48.979591836734699</c:v>
+                  <c:v>84.36781609195404</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>53.061224489795919</c:v>
+                  <c:v>91.398467432950213</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>57.142857142857146</c:v>
+                  <c:v>98.429118773946371</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>61.224489795918366</c:v>
+                  <c:v>105.45977011494254</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>65.306122448979593</c:v>
+                  <c:v>112.49042145593872</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>69.387755102040813</c:v>
+                  <c:v>119.52107279693489</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>73.469387755102048</c:v>
+                  <c:v>126.55172413793106</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>77.551020408163268</c:v>
+                  <c:v>133.58237547892722</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>81.632653061224488</c:v>
+                  <c:v>140.61302681992339</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -900,64 +900,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>3.4482758620689657</c:v>
+                  <c:v>5.6987577639751565</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.8965517241379315</c:v>
+                  <c:v>11.397515527950313</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.344827586206897</c:v>
+                  <c:v>17.096273291925471</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.793103448275863</c:v>
+                  <c:v>22.795031055900626</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.241379310344829</c:v>
+                  <c:v>28.493788819875782</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.689655172413794</c:v>
+                  <c:v>34.192546583850941</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.137931034482762</c:v>
+                  <c:v>39.891304347826093</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27.586206896551726</c:v>
+                  <c:v>45.590062111801252</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31.03448275862069</c:v>
+                  <c:v>51.288819875776412</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34.482758620689658</c:v>
+                  <c:v>56.987577639751564</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>37.931034482758626</c:v>
+                  <c:v>62.686335403726723</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41.379310344827587</c:v>
+                  <c:v>68.385093167701882</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44.827586206896555</c:v>
+                  <c:v>74.083850931677034</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>48.275862068965523</c:v>
+                  <c:v>79.782608695652186</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>51.724137931034484</c:v>
+                  <c:v>85.481366459627353</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>55.172413793103452</c:v>
+                  <c:v>91.180124223602505</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>58.62068965517242</c:v>
+                  <c:v>96.878881987577657</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>62.068965517241381</c:v>
+                  <c:v>102.57763975155282</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>65.517241379310349</c:v>
+                  <c:v>108.27639751552798</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>68.965517241379317</c:v>
+                  <c:v>113.97515527950313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1060,64 +1060,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>2.6315789473684212</c:v>
+                  <c:v>4.1328828828828836</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.2631578947368425</c:v>
+                  <c:v>8.2657657657657673</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.8947368421052637</c:v>
+                  <c:v>12.398648648648651</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.526315789473685</c:v>
+                  <c:v>16.531531531531535</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.157894736842106</c:v>
+                  <c:v>20.664414414414416</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.789473684210527</c:v>
+                  <c:v>24.797297297297302</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.421052631578949</c:v>
+                  <c:v>28.930180180180187</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21.05263157894737</c:v>
+                  <c:v>33.063063063063069</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.684210526315791</c:v>
+                  <c:v>37.195945945945951</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.315789473684212</c:v>
+                  <c:v>41.328828828828833</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>28.947368421052634</c:v>
+                  <c:v>45.461711711711722</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>31.578947368421055</c:v>
+                  <c:v>49.594594594594604</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>34.21052631578948</c:v>
+                  <c:v>53.727477477477485</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>36.842105263157897</c:v>
+                  <c:v>57.860360360360374</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>39.473684210526315</c:v>
+                  <c:v>61.993243243243256</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42.10526315789474</c:v>
+                  <c:v>66.126126126126138</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44.736842105263165</c:v>
+                  <c:v>70.25900900900902</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>47.368421052631582</c:v>
+                  <c:v>74.391891891891902</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>50</c:v>
+                  <c:v>78.524774774774784</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>52.631578947368425</c:v>
+                  <c:v>82.657657657657666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1222,64 +1222,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>2.1875</c:v>
+                  <c:v>3.3450520833333335</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.375</c:v>
+                  <c:v>6.690104166666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.5625</c:v>
+                  <c:v>10.03515625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.75</c:v>
+                  <c:v>13.380208333333334</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.9375</c:v>
+                  <c:v>16.725260416666668</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.125</c:v>
+                  <c:v>20.0703125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.3125</c:v>
+                  <c:v>23.415364583333336</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.5</c:v>
+                  <c:v>26.760416666666668</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.6875</c:v>
+                  <c:v>30.10546875</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21.875</c:v>
+                  <c:v>33.450520833333336</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24.0625</c:v>
+                  <c:v>36.795572916666671</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>26.25</c:v>
+                  <c:v>40.140625</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>28.4375</c:v>
+                  <c:v>43.485677083333336</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30.625</c:v>
+                  <c:v>46.830729166666671</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>32.8125</c:v>
+                  <c:v>50.17578125</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>35</c:v>
+                  <c:v>53.520833333333336</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>37.1875</c:v>
+                  <c:v>56.865885416666671</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>39.375</c:v>
+                  <c:v>60.2109375</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41.5625</c:v>
+                  <c:v>63.555989583333336</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43.75</c:v>
+                  <c:v>66.901041666666671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1384,64 +1384,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1.5384615384615383</c:v>
+                  <c:v>2.2654320987654324</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0769230769230766</c:v>
+                  <c:v>4.5308641975308648</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.615384615384615</c:v>
+                  <c:v>6.7962962962962976</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.1538461538461533</c:v>
+                  <c:v>9.0617283950617296</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.6923076923076916</c:v>
+                  <c:v>11.327160493827162</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.2307692307692299</c:v>
+                  <c:v>13.592592592592595</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.769230769230768</c:v>
+                  <c:v>15.858024691358027</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.307692307692307</c:v>
+                  <c:v>18.123456790123459</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.846153846153845</c:v>
+                  <c:v>20.388888888888893</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15.384615384615383</c:v>
+                  <c:v>22.654320987654323</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16.92307692307692</c:v>
+                  <c:v>24.919753086419757</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18.46153846153846</c:v>
+                  <c:v>27.18518518518519</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20</c:v>
+                  <c:v>29.450617283950621</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>21.538461538461537</c:v>
+                  <c:v>31.716049382716054</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>23.076923076923073</c:v>
+                  <c:v>33.981481481481488</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>24.615384615384613</c:v>
+                  <c:v>36.246913580246918</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>26.153846153846153</c:v>
+                  <c:v>38.512345679012348</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>27.69230769230769</c:v>
+                  <c:v>40.777777777777786</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>29.230769230769226</c:v>
+                  <c:v>43.043209876543216</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>30.769230769230766</c:v>
+                  <c:v>45.308641975308646</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1546,64 +1546,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.90909090909090906</c:v>
+                  <c:v>1.2922535211267607</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8181818181818181</c:v>
+                  <c:v>2.5845070422535215</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7272727272727271</c:v>
+                  <c:v>3.876760563380282</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.6363636363636362</c:v>
+                  <c:v>5.1690140845070429</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.545454545454545</c:v>
+                  <c:v>6.4612676056338039</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.4545454545454541</c:v>
+                  <c:v>7.7535211267605639</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.3636363636363633</c:v>
+                  <c:v>9.0457746478873258</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.2727272727272725</c:v>
+                  <c:v>10.338028169014086</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.1818181818181817</c:v>
+                  <c:v>11.630281690140846</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.0909090909090899</c:v>
+                  <c:v>12.922535211267608</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>14.214788732394368</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10.909090909090908</c:v>
+                  <c:v>15.507042253521128</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.818181818181818</c:v>
+                  <c:v>16.799295774647888</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12.727272727272727</c:v>
+                  <c:v>18.091549295774652</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13.636363636363637</c:v>
+                  <c:v>19.383802816901412</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>14.545454545454545</c:v>
+                  <c:v>20.676056338028172</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15.454545454545453</c:v>
+                  <c:v>21.968309859154932</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>16.363636363636363</c:v>
+                  <c:v>23.260563380281692</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>17.272727272727273</c:v>
+                  <c:v>24.552816901408455</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>18.18181818181818</c:v>
+                  <c:v>25.845070422535215</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1708,64 +1708,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.90909090909090906</c:v>
+                  <c:v>1.2922535211267607</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8181818181818181</c:v>
+                  <c:v>2.5845070422535215</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7272727272727271</c:v>
+                  <c:v>3.876760563380282</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.6363636363636362</c:v>
+                  <c:v>5.1690140845070429</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.545454545454545</c:v>
+                  <c:v>6.4612676056338039</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.4545454545454541</c:v>
+                  <c:v>7.7535211267605639</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.3636363636363633</c:v>
+                  <c:v>9.0457746478873258</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.2727272727272725</c:v>
+                  <c:v>10.338028169014086</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.1818181818181817</c:v>
+                  <c:v>11.630281690140846</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.0909090909090899</c:v>
+                  <c:v>12.922535211267608</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>14.214788732394368</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10.909090909090908</c:v>
+                  <c:v>15.507042253521128</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.818181818181818</c:v>
+                  <c:v>16.799295774647888</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12.727272727272727</c:v>
+                  <c:v>18.091549295774652</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13.636363636363637</c:v>
+                  <c:v>19.383802816901412</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>14.545454545454545</c:v>
+                  <c:v>20.676056338028172</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15.454545454545453</c:v>
+                  <c:v>21.968309859154932</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>16.363636363636363</c:v>
+                  <c:v>23.260563380281692</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>17.272727272727273</c:v>
+                  <c:v>24.552816901408455</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>18.18181818181818</c:v>
+                  <c:v>25.845070422535215</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1922,64 +1922,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.26315789473684209</c:v>
+                  <c:v>0.36122047244094491</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.52631578947368418</c:v>
+                  <c:v>0.72244094488188981</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.78947368421052633</c:v>
+                  <c:v>1.0836614173228347</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0526315789473684</c:v>
+                  <c:v>1.4448818897637796</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3157894736842104</c:v>
+                  <c:v>1.8061023622047245</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5789473684210527</c:v>
+                  <c:v>2.1673228346456694</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.8421052631578947</c:v>
+                  <c:v>2.5285433070866143</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.1052631578947367</c:v>
+                  <c:v>2.8897637795275593</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.3684210526315788</c:v>
+                  <c:v>3.2509842519685042</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.6315789473684208</c:v>
+                  <c:v>3.6122047244094491</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.8947368421052628</c:v>
+                  <c:v>3.973425196850394</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.1578947368421053</c:v>
+                  <c:v>4.3346456692913389</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.4210526315789473</c:v>
+                  <c:v>4.6958661417322833</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.6842105263157894</c:v>
+                  <c:v>5.0570866141732287</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.9473684210526314</c:v>
+                  <c:v>5.418307086614174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.2105263157894735</c:v>
+                  <c:v>5.7795275590551185</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.4736842105263159</c:v>
+                  <c:v>6.140748031496063</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.7368421052631575</c:v>
+                  <c:v>6.5019685039370083</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5</c:v>
+                  <c:v>6.8631889763779537</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.2631578947368416</c:v>
+                  <c:v>7.2244094488188981</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2327,64 +2327,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>7.320574162679426E-2</c:v>
+                  <c:v>0.13619816211121583</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14784688995215312</c:v>
+                  <c:v>0.25164231856738928</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.22177033492822965</c:v>
+                  <c:v>0.38135485391140433</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.29282296650717704</c:v>
+                  <c:v>0.53960414703110271</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.36602870813397126</c:v>
+                  <c:v>0.62910579641847308</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.40909090909090906</c:v>
+                  <c:v>0.80940622054665412</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.52751196172248804</c:v>
+                  <c:v>0.87166823751178135</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.58564593301435408</c:v>
+                  <c:v>1.0169462770970783</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.61363636363636365</c:v>
+                  <c:v>1.1323904335532515</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.75358851674641147</c:v>
+                  <c:v>1.3230678605089539</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.78157894736842104</c:v>
+                  <c:v>1.3697643732327993</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.84401913875598078</c:v>
+                  <c:v>1.5876814326107445</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.88636363636363635</c:v>
+                  <c:v>1.7537134778510839</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0449760765550238</c:v>
+                  <c:v>1.9067742695570218</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0334928229665072</c:v>
+                  <c:v>1.9067742695570218</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.1253588516746411</c:v>
+                  <c:v>2.0961545711592837</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.1956937799043061</c:v>
+                  <c:v>2.2712664938737039</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.3306220095693782</c:v>
+                  <c:v>2.4048704052780394</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.418181818181818</c:v>
+                  <c:v>2.5877650801131011</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.5071770334928229</c:v>
+                  <c:v>2.4904806786050897</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2487,64 +2487,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>7.087155963302752E-2</c:v>
+                  <c:v>0.1165274064171123</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.13211009174311927</c:v>
+                  <c:v>0.25268048128342246</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19610091743119265</c:v>
+                  <c:v>0.36798128342245989</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.26422018348623855</c:v>
+                  <c:v>0.49064171122994654</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.34747706422018348</c:v>
+                  <c:v>0.59490307486631011</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.41284403669724767</c:v>
+                  <c:v>0.75068181818181823</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.48165137614678905</c:v>
+                  <c:v>0.85862299465240643</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.54495412844036695</c:v>
+                  <c:v>0.95184491978609631</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.6316513761467889</c:v>
+                  <c:v>1.081864973262032</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.72247706422018343</c:v>
+                  <c:v>1.2879344919786095</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.74931192660550461</c:v>
+                  <c:v>1.4032352941176469</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.83394495412844027</c:v>
+                  <c:v>1.4572058823529412</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.88555045871559634</c:v>
+                  <c:v>1.5626938502673797</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.92477064220183491</c:v>
+                  <c:v>1.6657286096256685</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0837155963302751</c:v>
+                  <c:v>1.9135026737967915</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.0788990825688074</c:v>
+                  <c:v>1.8644385026737968</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.2048165137614679</c:v>
+                  <c:v>1.9809659090909093</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.2633027522935778</c:v>
+                  <c:v>2.1195721925133686</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.3596330275229358</c:v>
+                  <c:v>2.4470755347593585</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.3211009174311927</c:v>
+                  <c:v>2.4532085561497325</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2659,64 +2659,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>6.7784810126582273E-2</c:v>
+                  <c:v>0.11602691605839416</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.13158227848101264</c:v>
+                  <c:v>0.22970985401459854</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.20734177215189872</c:v>
+                  <c:v>0.34104881386861313</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.26316455696202529</c:v>
+                  <c:v>0.48285948905109488</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.33892405063291131</c:v>
+                  <c:v>0.58013458029197085</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.41468354430379745</c:v>
+                  <c:v>0.68209762773722626</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.45123417721518988</c:v>
+                  <c:v>0.78757664233576641</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.5156962025316455</c:v>
+                  <c:v>0.96571897810218976</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.59212025316455696</c:v>
+                  <c:v>1.0758859489051096</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.69113924050632902</c:v>
+                  <c:v>1.2188686131386861</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.7602531645569619</c:v>
+                  <c:v>1.314971715328467</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.78949367088607592</c:v>
+                  <c:v>1.3923229927007299</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.88120253164556961</c:v>
+                  <c:v>1.5997650547445255</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.92107594936708859</c:v>
+                  <c:v>1.7064160583941606</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0367088607594936</c:v>
+                  <c:v>1.7931432481751823</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.0101265822784808</c:v>
+                  <c:v>1.8001751824817518</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.1749367088607592</c:v>
+                  <c:v>1.9525337591240874</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.136392405063291</c:v>
+                  <c:v>2.0041012773722628</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.3131645569620252</c:v>
+                  <c:v>2.1154402372262777</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.2759493670886073</c:v>
+                  <c:v>2.4611770072992698</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2831,64 +2831,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>5.8163265306122446E-2</c:v>
+                  <c:v>0.10756896551724139</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12612244897959182</c:v>
+                  <c:v>0.22146551724137933</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19285714285714287</c:v>
+                  <c:v>0.30056034482758626</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2473469387755102</c:v>
+                  <c:v>0.44293103448275867</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3</c:v>
+                  <c:v>0.50093390804597704</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.3563265306122449</c:v>
+                  <c:v>0.60112068965517251</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.43714285714285717</c:v>
+                  <c:v>0.73821839080459772</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.4946938775510204</c:v>
+                  <c:v>0.80993103448275872</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.5234693877551021</c:v>
+                  <c:v>0.9965948275862071</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.61836734693877549</c:v>
+                  <c:v>1.0651436781609196</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.63979591836734695</c:v>
+                  <c:v>1.1136551724137931</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.7567346938775511</c:v>
+                  <c:v>1.2781724137931036</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.79591836734693877</c:v>
+                  <c:v>1.3846867816091957</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.84857142857142864</c:v>
+                  <c:v>1.4321436781609196</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.89081632653061216</c:v>
+                  <c:v>1.5977155172413795</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.94040816326530607</c:v>
+                  <c:v>1.7211034482758623</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.0199999999999998</c:v>
+                  <c:v>1.8107442528735636</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.0469387755102042</c:v>
+                  <c:v>1.9742068965517245</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.1516326530612244</c:v>
+                  <c:v>1.9035488505747127</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.1632653061224489</c:v>
+                  <c:v>2.024827586206897</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2991,64 +2991,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>5.3275862068965514E-2</c:v>
+                  <c:v>8.120729813664597E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10655172413793103</c:v>
+                  <c:v>0.16241459627329194</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15362068965517242</c:v>
+                  <c:v>0.24875077639751561</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.20689655172413793</c:v>
+                  <c:v>0.35902173913043484</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.26120689655172413</c:v>
+                  <c:v>0.4145846273291926</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.29482758620689659</c:v>
+                  <c:v>0.49237267080745356</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.35120689655172421</c:v>
+                  <c:v>0.62828804347826095</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.43448275862068964</c:v>
+                  <c:v>0.67017391304347829</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.44689655172413789</c:v>
+                  <c:v>0.7462523291925468</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.50689655172413794</c:v>
+                  <c:v>0.81207298136645978</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.59172413793103451</c:v>
+                  <c:v>0.89328027950310585</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.60827586206896556</c:v>
+                  <c:v>0.97448757763975191</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.6925862068965517</c:v>
+                  <c:v>1.0890326086956523</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.72413793103448287</c:v>
+                  <c:v>1.1967391304347827</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.7448275862068966</c:v>
+                  <c:v>1.2950427018633544</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.86896551724137927</c:v>
+                  <c:v>1.3129937888198759</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.83534482758620698</c:v>
+                  <c:v>1.409587732919255</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.91241379310344828</c:v>
+                  <c:v>1.584824534161491</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.0024137931034482</c:v>
+                  <c:v>1.5429386645962735</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.0241379310344829</c:v>
+                  <c:v>1.6241459627329196</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3163,64 +3163,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>4.0263157894736848E-2</c:v>
+                  <c:v>6.1993243243243255E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.5000000000000011E-2</c:v>
+                  <c:v>0.11902702702702705</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.12315789473684212</c:v>
+                  <c:v>0.19341891891891894</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.15000000000000002</c:v>
+                  <c:v>0.24053378378378382</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.19736842105263158</c:v>
+                  <c:v>0.30066722972972976</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.24631578947368424</c:v>
+                  <c:v>0.36080067567567575</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.28460526315789475</c:v>
+                  <c:v>0.43829222972972981</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.30947368421052635</c:v>
+                  <c:v>0.48106756756756763</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.34460526315789475</c:v>
+                  <c:v>0.58583614864864875</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.39473684210526316</c:v>
+                  <c:v>0.63233108108108116</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.43855263157894736</c:v>
+                  <c:v>0.67510641891891898</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.45473684210526316</c:v>
+                  <c:v>0.74391891891891904</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.50802631578947377</c:v>
+                  <c:v>0.80591216216216222</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.56368421052631579</c:v>
+                  <c:v>0.87658445945945962</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.5625</c:v>
+                  <c:v>0.93919763513513532</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.63157894736842113</c:v>
+                  <c:v>1.0117297297297299</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.69789473684210535</c:v>
+                  <c:v>1.106579391891892</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.67500000000000004</c:v>
+                  <c:v>1.1270371621621624</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.71250000000000002</c:v>
+                  <c:v>1.2249864864864866</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.82105263157894737</c:v>
+                  <c:v>1.3018581081081082</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3339,64 +3339,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>3.2484375000000003E-2</c:v>
+                  <c:v>5.0677539062500006E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.8906250000000002E-2</c:v>
+                  <c:v>9.7341015624999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.6468749999999992E-2</c:v>
+                  <c:v>0.14300097656249999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1273125</c:v>
+                  <c:v>0.19869609375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.15914062500000001</c:v>
+                  <c:v>0.24586132812500003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.19293749999999998</c:v>
+                  <c:v>0.28600195312499999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.2205</c:v>
+                  <c:v>0.36176738281250004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.27562500000000001</c:v>
+                  <c:v>0.3893640625</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.28054687499999997</c:v>
+                  <c:v>0.46061367187499996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.33140625000000001</c:v>
+                  <c:v>0.51179296875000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.37898437499999998</c:v>
+                  <c:v>0.55745292968750004</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.39768749999999997</c:v>
+                  <c:v>0.62619374999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.44362499999999999</c:v>
+                  <c:v>0.65228515625000005</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.45937499999999998</c:v>
+                  <c:v>0.68138710937500002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.48726562499999998</c:v>
+                  <c:v>0.71500488281249996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.49875000000000003</c:v>
+                  <c:v>0.81886875000000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.56339062499999992</c:v>
+                  <c:v>0.84445839843750004</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.60834374999999996</c:v>
+                  <c:v>0.93929062499999993</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.64837499999999992</c:v>
+                  <c:v>0.94380644531250002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.63</c:v>
+                  <c:v>0.95333984375000014</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3515,64 +3515,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>2.3769230769230768E-2</c:v>
+                  <c:v>3.3641666666666674E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8461538461538459E-2</c:v>
+                  <c:v>6.4564814814814825E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.576923076923076E-2</c:v>
+                  <c:v>0.10500277777777779</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.9538461538461525E-2</c:v>
+                  <c:v>0.13592592592592595</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.11999999999999998</c:v>
+                  <c:v>0.16311111111111112</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.13153846153846152</c:v>
+                  <c:v>0.20592777777777782</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.16799999999999998</c:v>
+                  <c:v>0.23311296296296299</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.18646153846153846</c:v>
+                  <c:v>0.2718518518518519</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.20146153846153844</c:v>
+                  <c:v>0.30277500000000007</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.23076923076923073</c:v>
+                  <c:v>0.33301851851851855</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.24369230769230762</c:v>
+                  <c:v>0.38127222222222229</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.26584615384615379</c:v>
+                  <c:v>0.39962222222222227</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.30599999999999999</c:v>
+                  <c:v>0.44617685185185191</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.3295384615384615</c:v>
+                  <c:v>0.49001296296296304</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.33230769230769225</c:v>
+                  <c:v>0.4893333333333334</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.36553846153846148</c:v>
+                  <c:v>0.5165185185185186</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.37269230769230771</c:v>
+                  <c:v>0.56613148148148151</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.41953846153846153</c:v>
+                  <c:v>0.60555000000000014</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.44284615384615378</c:v>
+                  <c:v>0.65210462962962967</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.45692307692307682</c:v>
+                  <c:v>0.67962962962962969</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3689,64 +3689,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1.3363636363636362E-2</c:v>
+                  <c:v>1.8996126760563382E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.809090909090909E-2</c:v>
+                  <c:v>3.9155281690140847E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.1727272727272717E-2</c:v>
+                  <c:v>5.9895950704225355E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.7272727272727267E-2</c:v>
+                  <c:v>8.1411971830985919E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.6818181818181818E-2</c:v>
+                  <c:v>9.4011443661971839E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.5090909090909078E-2</c:v>
+                  <c:v>0.12211795774647888</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.0681818181818169E-2</c:v>
+                  <c:v>0.13568661971830989</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.10581818181818181</c:v>
+                  <c:v>0.14731690140845072</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.11904545454545454</c:v>
+                  <c:v>0.17096514084507045</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.13909090909090907</c:v>
+                  <c:v>0.1938380281690141</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.153</c:v>
+                  <c:v>0.2089573943661972</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.16854545454545453</c:v>
+                  <c:v>0.23493169014084508</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.17372727272727273</c:v>
+                  <c:v>0.25702922535211264</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.18136363636363634</c:v>
+                  <c:v>0.26865950704225361</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.20863636363636362</c:v>
+                  <c:v>0.29657218309859157</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.2138181818181818</c:v>
+                  <c:v>0.30393802816901411</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.22486363636363632</c:v>
+                  <c:v>0.3196389084507042</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.25772727272727275</c:v>
+                  <c:v>0.34541936619718311</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.25650000000000001</c:v>
+                  <c:v>0.37197517605633806</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.25909090909090909</c:v>
+                  <c:v>0.37216901408450709</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3865,64 +3865,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1.3636363636363636E-2</c:v>
+                  <c:v>1.8996126760563382E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6727272727272725E-2</c:v>
+                  <c:v>3.9930633802816903E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.2136363636363632E-2</c:v>
+                  <c:v>6.0477464788732394E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.4545454545454543E-2</c:v>
+                  <c:v>8.1411971830985919E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.8181818181818177E-2</c:v>
+                  <c:v>0.10079577464788733</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.9363636363636345E-2</c:v>
+                  <c:v>0.12095492957746479</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.8318181818181805E-2</c:v>
+                  <c:v>0.14247095070422539</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.11236363636363636</c:v>
+                  <c:v>0.1581718309859155</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.11781818181818182</c:v>
+                  <c:v>0.17096514084507045</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.14045454545454544</c:v>
+                  <c:v>0.1938380281690141</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.14249999999999999</c:v>
+                  <c:v>0.21748626760563383</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.16363636363636361</c:v>
+                  <c:v>0.24190985915492957</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.18436363636363637</c:v>
+                  <c:v>0.24442975352112672</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.18136363636363634</c:v>
+                  <c:v>0.27951443661971836</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.19431818181818181</c:v>
+                  <c:v>0.28203433098591552</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.22909090909090907</c:v>
+                  <c:v>0.31014084507042256</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.24109090909090905</c:v>
+                  <c:v>0.33281989436619719</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.25281818181818183</c:v>
+                  <c:v>0.34193028169014089</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.26945454545454545</c:v>
+                  <c:v>0.38670686619718314</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.26181818181818178</c:v>
+                  <c:v>0.3954295774647888</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4041,64 +4041,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>3.7499999999999994E-3</c:v>
+                  <c:v>5.1473917322834642E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.2105263157894719E-3</c:v>
+                  <c:v>1.0294783464566928E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1605263157894737E-2</c:v>
+                  <c:v>1.5604724409448821E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6105263157894734E-2</c:v>
+                  <c:v>2.1673228346456692E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9144736842105263E-2</c:v>
+                  <c:v>2.5736958661417324E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.2973684210526316E-2</c:v>
+                  <c:v>3.0884350393700789E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.7907894736842104E-2</c:v>
+                  <c:v>3.7169586614173231E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.2210526315789467E-2</c:v>
+                  <c:v>4.4646850393700789E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.588157894736841E-2</c:v>
+                  <c:v>4.6326525590551185E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.8289473684210526E-2</c:v>
+                  <c:v>5.1473917322834649E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.3421052631578944E-2</c:v>
+                  <c:v>5.9005364173228346E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.9736842105263163E-2</c:v>
+                  <c:v>6.8270669291338584E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.9776315789473682E-2</c:v>
+                  <c:v>7.3959891732283456E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.8026315789473683E-2</c:v>
+                  <c:v>7.3580610236220478E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.0986842105263152E-2</c:v>
+                  <c:v>7.8023622047244112E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.3157894736842093E-2</c:v>
+                  <c:v>8.7559842519685044E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.7105263157894737E-2</c:v>
+                  <c:v>9.5795669291338578E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.0342105263157886E-2</c:v>
+                  <c:v>9.5578937007874024E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.4249999999999997E-2</c:v>
+                  <c:v>0.10706574803149607</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.6578947368421052E-2</c:v>
+                  <c:v>0.11053346456692914</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5816,8 +5816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD913AE-747E-C341-AF89-CB2D285A6A4D}">
   <dimension ref="A1:Z67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P8" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="X21" sqref="X21"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57:V67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5827,7 +5827,7 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>0.9</v>
+        <v>1.22</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -5838,7 +5838,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -5953,87 +5953,87 @@
       </c>
       <c r="B7">
         <f>$B$2*A7/($B$1 + A7)</f>
-        <v>19.138755980861244</v>
+        <v>34.59000942507069</v>
       </c>
       <c r="C7">
         <f>C$6*$B7</f>
-        <v>4.7846889952153111</v>
+        <v>8.6475023562676725</v>
       </c>
       <c r="D7">
         <f>D$6*$B7</f>
-        <v>9.5693779904306222</v>
+        <v>17.295004712535345</v>
       </c>
       <c r="E7">
         <f t="shared" ref="E7:V17" si="1">E$6*$B7</f>
-        <v>14.354066985645932</v>
+        <v>25.942507068803017</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>19.138755980861244</v>
+        <v>34.59000942507069</v>
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>23.923444976076556</v>
+        <v>43.237511781338362</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>28.708133971291865</v>
+        <v>51.885014137606035</v>
       </c>
       <c r="I7">
         <f t="shared" si="1"/>
-        <v>33.492822966507177</v>
+        <v>60.532516493873707</v>
       </c>
       <c r="J7">
         <f t="shared" si="1"/>
-        <v>38.277511961722489</v>
+        <v>69.18001885014138</v>
       </c>
       <c r="K7">
         <f t="shared" si="1"/>
-        <v>43.062200956937801</v>
+        <v>77.827521206409045</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>47.846889952153113</v>
+        <v>86.475023562676725</v>
       </c>
       <c r="M7">
         <f t="shared" si="1"/>
-        <v>52.631578947368425</v>
+        <v>95.122525918944405</v>
       </c>
       <c r="N7">
         <f t="shared" si="1"/>
-        <v>57.41626794258373</v>
+        <v>103.77002827521207</v>
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>62.200956937799042</v>
+        <v>112.41753063147974</v>
       </c>
       <c r="P7">
         <f t="shared" si="1"/>
-        <v>66.985645933014354</v>
+        <v>121.06503298774741</v>
       </c>
       <c r="Q7">
         <f t="shared" si="1"/>
-        <v>71.770334928229673</v>
+        <v>129.71253534401509</v>
       </c>
       <c r="R7">
         <f t="shared" si="1"/>
-        <v>76.555023923444978</v>
+        <v>138.36003770028276</v>
       </c>
       <c r="S7">
         <f t="shared" si="1"/>
-        <v>81.339712918660283</v>
+        <v>147.00754005655043</v>
       </c>
       <c r="T7">
         <f t="shared" si="1"/>
-        <v>86.124401913875602</v>
+        <v>155.65504241281809</v>
       </c>
       <c r="U7">
         <f t="shared" si="1"/>
-        <v>90.909090909090907</v>
+        <v>164.30254476908578</v>
       </c>
       <c r="V7">
         <f t="shared" si="1"/>
-        <v>95.693779904306226</v>
+        <v>172.95004712535345</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
@@ -6042,87 +6042,87 @@
       </c>
       <c r="B8">
         <f t="shared" ref="B8:B17" si="2">$B$2*A8/($B$1 + A8)</f>
-        <v>18.348623853211009</v>
+        <v>32.70944741532977</v>
       </c>
       <c r="C8">
         <f t="shared" ref="C8:R17" si="3">C$6*$B8</f>
-        <v>4.5871559633027523</v>
+        <v>8.1773618538324424</v>
       </c>
       <c r="D8">
         <f t="shared" si="3"/>
-        <v>9.1743119266055047</v>
+        <v>16.354723707664885</v>
       </c>
       <c r="E8">
         <f t="shared" si="3"/>
-        <v>13.761467889908257</v>
+        <v>24.532085561497325</v>
       </c>
       <c r="F8">
         <f t="shared" si="3"/>
-        <v>18.348623853211009</v>
+        <v>32.70944741532977</v>
       </c>
       <c r="G8">
         <f t="shared" si="3"/>
-        <v>22.935779816513762</v>
+        <v>40.886809269162214</v>
       </c>
       <c r="H8">
         <f t="shared" si="3"/>
-        <v>27.522935779816514</v>
+        <v>49.064171122994651</v>
       </c>
       <c r="I8">
         <f t="shared" si="3"/>
-        <v>32.11009174311927</v>
+        <v>57.241532976827095</v>
       </c>
       <c r="J8">
         <f t="shared" si="3"/>
-        <v>36.697247706422019</v>
+        <v>65.418894830659539</v>
       </c>
       <c r="K8">
         <f t="shared" si="3"/>
-        <v>41.284403669724767</v>
+        <v>73.596256684491976</v>
       </c>
       <c r="L8">
         <f t="shared" si="3"/>
-        <v>45.871559633027523</v>
+        <v>81.773618538324428</v>
       </c>
       <c r="M8">
         <f t="shared" si="3"/>
-        <v>50.458715596330279</v>
+        <v>89.950980392156865</v>
       </c>
       <c r="N8">
         <f t="shared" si="3"/>
-        <v>55.045871559633028</v>
+        <v>98.128342245989302</v>
       </c>
       <c r="O8">
         <f t="shared" si="3"/>
-        <v>59.633027522935777</v>
+        <v>106.30570409982175</v>
       </c>
       <c r="P8">
         <f t="shared" si="3"/>
-        <v>64.22018348623854</v>
+        <v>114.48306595365419</v>
       </c>
       <c r="Q8">
         <f t="shared" si="3"/>
-        <v>68.807339449541288</v>
+        <v>122.66042780748664</v>
       </c>
       <c r="R8">
         <f t="shared" si="3"/>
-        <v>73.394495412844037</v>
+        <v>130.83778966131908</v>
       </c>
       <c r="S8">
         <f t="shared" si="1"/>
-        <v>77.981651376146786</v>
+        <v>139.01515151515153</v>
       </c>
       <c r="T8">
         <f t="shared" si="1"/>
-        <v>82.568807339449535</v>
+        <v>147.19251336898395</v>
       </c>
       <c r="U8">
         <f t="shared" si="1"/>
-        <v>87.155963302752298</v>
+        <v>155.3698752228164</v>
       </c>
       <c r="V8">
         <f t="shared" si="1"/>
-        <v>91.743119266055047</v>
+        <v>163.54723707664886</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
@@ -6131,87 +6131,87 @@
       </c>
       <c r="B9">
         <f t="shared" si="2"/>
-        <v>17.721518987341771</v>
+        <v>31.253041362530414</v>
       </c>
       <c r="C9">
         <f t="shared" si="3"/>
-        <v>4.4303797468354427</v>
+        <v>7.8132603406326036</v>
       </c>
       <c r="D9">
         <f t="shared" si="3"/>
-        <v>8.8607594936708853</v>
+        <v>15.626520681265207</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>13.291139240506329</v>
+        <v>23.439781021897812</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>17.721518987341771</v>
+        <v>31.253041362530414</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>22.151898734177212</v>
+        <v>39.06630170316302</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>26.582278481012658</v>
+        <v>46.879562043795623</v>
       </c>
       <c r="I9">
         <f t="shared" si="1"/>
-        <v>31.0126582278481</v>
+        <v>54.692822384428226</v>
       </c>
       <c r="J9">
         <f t="shared" si="1"/>
-        <v>35.443037974683541</v>
+        <v>62.506082725060828</v>
       </c>
       <c r="K9">
         <f t="shared" si="1"/>
-        <v>39.873417721518983</v>
+        <v>70.319343065693431</v>
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>44.303797468354425</v>
+        <v>78.132603406326041</v>
       </c>
       <c r="M9">
         <f t="shared" si="1"/>
-        <v>48.734177215189867</v>
+        <v>85.945863746958636</v>
       </c>
       <c r="N9">
         <f t="shared" si="1"/>
-        <v>53.164556962025316</v>
+        <v>93.759124087591246</v>
       </c>
       <c r="O9">
         <f t="shared" si="1"/>
-        <v>57.594936708860757</v>
+        <v>101.57238442822384</v>
       </c>
       <c r="P9">
         <f t="shared" si="1"/>
-        <v>62.025316455696199</v>
+        <v>109.38564476885645</v>
       </c>
       <c r="Q9">
         <f t="shared" si="1"/>
-        <v>66.455696202531641</v>
+        <v>117.19890510948905</v>
       </c>
       <c r="R9">
         <f t="shared" si="1"/>
-        <v>70.886075949367083</v>
+        <v>125.01216545012166</v>
       </c>
       <c r="S9">
         <f t="shared" si="1"/>
-        <v>75.316455696202524</v>
+        <v>132.82542579075425</v>
       </c>
       <c r="T9">
         <f t="shared" si="1"/>
-        <v>79.746835443037966</v>
+        <v>140.63868613138686</v>
       </c>
       <c r="U9">
         <f t="shared" si="1"/>
-        <v>84.177215189873408</v>
+        <v>148.45194647201947</v>
       </c>
       <c r="V9">
         <f t="shared" si="1"/>
-        <v>88.60759493670885</v>
+        <v>156.26520681265208</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
@@ -6220,87 +6220,87 @@
       </c>
       <c r="B10">
         <f t="shared" si="2"/>
-        <v>16.326530612244898</v>
+        <v>28.122605363984679</v>
       </c>
       <c r="C10">
         <f t="shared" si="3"/>
-        <v>4.0816326530612246</v>
+        <v>7.0306513409961697</v>
       </c>
       <c r="D10">
         <f t="shared" si="3"/>
-        <v>8.1632653061224492</v>
+        <v>14.061302681992339</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>12.244897959183675</v>
+        <v>21.09195402298851</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>16.326530612244898</v>
+        <v>28.122605363984679</v>
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>20.408163265306122</v>
+        <v>35.153256704980848</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>24.489795918367349</v>
+        <v>42.18390804597702</v>
       </c>
       <c r="I10">
         <f t="shared" si="1"/>
-        <v>28.571428571428573</v>
+        <v>49.214559386973185</v>
       </c>
       <c r="J10">
         <f t="shared" si="1"/>
-        <v>32.653061224489797</v>
+        <v>56.245210727969358</v>
       </c>
       <c r="K10">
         <f t="shared" si="1"/>
-        <v>36.734693877551024</v>
+        <v>63.27586206896553</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>40.816326530612244</v>
+        <v>70.306513409961696</v>
       </c>
       <c r="M10">
         <f t="shared" si="1"/>
-        <v>44.897959183673471</v>
+        <v>77.337164750957868</v>
       </c>
       <c r="N10">
         <f t="shared" si="1"/>
-        <v>48.979591836734699</v>
+        <v>84.36781609195404</v>
       </c>
       <c r="O10">
         <f t="shared" si="1"/>
-        <v>53.061224489795919</v>
+        <v>91.398467432950213</v>
       </c>
       <c r="P10">
         <f t="shared" si="1"/>
-        <v>57.142857142857146</v>
+        <v>98.429118773946371</v>
       </c>
       <c r="Q10">
         <f t="shared" si="1"/>
-        <v>61.224489795918366</v>
+        <v>105.45977011494254</v>
       </c>
       <c r="R10">
         <f t="shared" si="1"/>
-        <v>65.306122448979593</v>
+        <v>112.49042145593872</v>
       </c>
       <c r="S10">
         <f t="shared" si="1"/>
-        <v>69.387755102040813</v>
+        <v>119.52107279693489</v>
       </c>
       <c r="T10">
         <f t="shared" si="1"/>
-        <v>73.469387755102048</v>
+        <v>126.55172413793106</v>
       </c>
       <c r="U10">
         <f t="shared" si="1"/>
-        <v>77.551020408163268</v>
+        <v>133.58237547892722</v>
       </c>
       <c r="V10">
         <f t="shared" si="1"/>
-        <v>81.632653061224488</v>
+        <v>140.61302681992339</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
@@ -6309,87 +6309,87 @@
       </c>
       <c r="B11">
         <f t="shared" si="2"/>
-        <v>13.793103448275863</v>
+        <v>22.795031055900626</v>
       </c>
       <c r="C11">
         <f t="shared" si="3"/>
-        <v>3.4482758620689657</v>
+        <v>5.6987577639751565</v>
       </c>
       <c r="D11">
         <f t="shared" si="3"/>
-        <v>6.8965517241379315</v>
+        <v>11.397515527950313</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>10.344827586206897</v>
+        <v>17.096273291925471</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>13.793103448275863</v>
+        <v>22.795031055900626</v>
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>17.241379310344829</v>
+        <v>28.493788819875782</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>20.689655172413794</v>
+        <v>34.192546583850941</v>
       </c>
       <c r="I11">
         <f t="shared" si="1"/>
-        <v>24.137931034482762</v>
+        <v>39.891304347826093</v>
       </c>
       <c r="J11">
         <f t="shared" si="1"/>
-        <v>27.586206896551726</v>
+        <v>45.590062111801252</v>
       </c>
       <c r="K11">
         <f t="shared" si="1"/>
-        <v>31.03448275862069</v>
+        <v>51.288819875776412</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>34.482758620689658</v>
+        <v>56.987577639751564</v>
       </c>
       <c r="M11">
         <f t="shared" si="1"/>
-        <v>37.931034482758626</v>
+        <v>62.686335403726723</v>
       </c>
       <c r="N11">
         <f t="shared" si="1"/>
-        <v>41.379310344827587</v>
+        <v>68.385093167701882</v>
       </c>
       <c r="O11">
         <f t="shared" si="1"/>
-        <v>44.827586206896555</v>
+        <v>74.083850931677034</v>
       </c>
       <c r="P11">
         <f t="shared" si="1"/>
-        <v>48.275862068965523</v>
+        <v>79.782608695652186</v>
       </c>
       <c r="Q11">
         <f t="shared" si="1"/>
-        <v>51.724137931034484</v>
+        <v>85.481366459627353</v>
       </c>
       <c r="R11">
         <f t="shared" si="1"/>
-        <v>55.172413793103452</v>
+        <v>91.180124223602505</v>
       </c>
       <c r="S11">
         <f t="shared" si="1"/>
-        <v>58.62068965517242</v>
+        <v>96.878881987577657</v>
       </c>
       <c r="T11">
         <f t="shared" si="1"/>
-        <v>62.068965517241381</v>
+        <v>102.57763975155282</v>
       </c>
       <c r="U11">
         <f t="shared" si="1"/>
-        <v>65.517241379310349</v>
+        <v>108.27639751552798</v>
       </c>
       <c r="V11">
         <f t="shared" si="1"/>
-        <v>68.965517241379317</v>
+        <v>113.97515527950313</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
@@ -6398,87 +6398,87 @@
       </c>
       <c r="B12">
         <f t="shared" si="2"/>
-        <v>10.526315789473685</v>
+        <v>16.531531531531535</v>
       </c>
       <c r="C12">
         <f t="shared" si="3"/>
-        <v>2.6315789473684212</v>
+        <v>4.1328828828828836</v>
       </c>
       <c r="D12">
         <f t="shared" si="3"/>
-        <v>5.2631578947368425</v>
+        <v>8.2657657657657673</v>
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>7.8947368421052637</v>
+        <v>12.398648648648651</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>10.526315789473685</v>
+        <v>16.531531531531535</v>
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
-        <v>13.157894736842106</v>
+        <v>20.664414414414416</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>15.789473684210527</v>
+        <v>24.797297297297302</v>
       </c>
       <c r="I12">
         <f t="shared" si="1"/>
-        <v>18.421052631578949</v>
+        <v>28.930180180180187</v>
       </c>
       <c r="J12">
         <f t="shared" si="1"/>
-        <v>21.05263157894737</v>
+        <v>33.063063063063069</v>
       </c>
       <c r="K12">
         <f t="shared" si="1"/>
-        <v>23.684210526315791</v>
+        <v>37.195945945945951</v>
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>26.315789473684212</v>
+        <v>41.328828828828833</v>
       </c>
       <c r="M12">
         <f t="shared" si="1"/>
-        <v>28.947368421052634</v>
+        <v>45.461711711711722</v>
       </c>
       <c r="N12">
         <f t="shared" si="1"/>
-        <v>31.578947368421055</v>
+        <v>49.594594594594604</v>
       </c>
       <c r="O12">
         <f t="shared" si="1"/>
-        <v>34.21052631578948</v>
+        <v>53.727477477477485</v>
       </c>
       <c r="P12">
         <f t="shared" si="1"/>
-        <v>36.842105263157897</v>
+        <v>57.860360360360374</v>
       </c>
       <c r="Q12">
         <f t="shared" si="1"/>
-        <v>39.473684210526315</v>
+        <v>61.993243243243256</v>
       </c>
       <c r="R12">
         <f t="shared" si="1"/>
-        <v>42.10526315789474</v>
+        <v>66.126126126126138</v>
       </c>
       <c r="S12">
         <f t="shared" si="1"/>
-        <v>44.736842105263165</v>
+        <v>70.25900900900902</v>
       </c>
       <c r="T12">
         <f t="shared" si="1"/>
-        <v>47.368421052631582</v>
+        <v>74.391891891891902</v>
       </c>
       <c r="U12">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>78.524774774774784</v>
       </c>
       <c r="V12">
         <f t="shared" si="1"/>
-        <v>52.631578947368425</v>
+        <v>82.657657657657666</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
@@ -6487,87 +6487,87 @@
       </c>
       <c r="B13">
         <f t="shared" si="2"/>
-        <v>8.75</v>
+        <v>13.380208333333334</v>
       </c>
       <c r="C13">
         <f t="shared" si="3"/>
-        <v>2.1875</v>
+        <v>3.3450520833333335</v>
       </c>
       <c r="D13">
         <f t="shared" si="3"/>
-        <v>4.375</v>
+        <v>6.690104166666667</v>
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
-        <v>6.5625</v>
+        <v>10.03515625</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>8.75</v>
+        <v>13.380208333333334</v>
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>10.9375</v>
+        <v>16.725260416666668</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>13.125</v>
+        <v>20.0703125</v>
       </c>
       <c r="I13">
         <f t="shared" si="1"/>
-        <v>15.3125</v>
+        <v>23.415364583333336</v>
       </c>
       <c r="J13">
         <f t="shared" si="1"/>
-        <v>17.5</v>
+        <v>26.760416666666668</v>
       </c>
       <c r="K13">
         <f t="shared" si="1"/>
-        <v>19.6875</v>
+        <v>30.10546875</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>21.875</v>
+        <v>33.450520833333336</v>
       </c>
       <c r="M13">
         <f t="shared" si="1"/>
-        <v>24.0625</v>
+        <v>36.795572916666671</v>
       </c>
       <c r="N13">
         <f t="shared" si="1"/>
-        <v>26.25</v>
+        <v>40.140625</v>
       </c>
       <c r="O13">
         <f t="shared" si="1"/>
-        <v>28.4375</v>
+        <v>43.485677083333336</v>
       </c>
       <c r="P13">
         <f t="shared" si="1"/>
-        <v>30.625</v>
+        <v>46.830729166666671</v>
       </c>
       <c r="Q13">
         <f t="shared" si="1"/>
-        <v>32.8125</v>
+        <v>50.17578125</v>
       </c>
       <c r="R13">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>53.520833333333336</v>
       </c>
       <c r="S13">
         <f t="shared" si="1"/>
-        <v>37.1875</v>
+        <v>56.865885416666671</v>
       </c>
       <c r="T13">
         <f t="shared" si="1"/>
-        <v>39.375</v>
+        <v>60.2109375</v>
       </c>
       <c r="U13">
         <f t="shared" si="1"/>
-        <v>41.5625</v>
+        <v>63.555989583333336</v>
       </c>
       <c r="V13">
         <f t="shared" si="1"/>
-        <v>43.75</v>
+        <v>66.901041666666671</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
@@ -6576,87 +6576,87 @@
       </c>
       <c r="B14">
         <f t="shared" si="2"/>
-        <v>6.1538461538461533</v>
+        <v>9.0617283950617296</v>
       </c>
       <c r="C14">
         <f t="shared" si="3"/>
-        <v>1.5384615384615383</v>
+        <v>2.2654320987654324</v>
       </c>
       <c r="D14">
         <f t="shared" si="3"/>
-        <v>3.0769230769230766</v>
+        <v>4.5308641975308648</v>
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
-        <v>4.615384615384615</v>
+        <v>6.7962962962962976</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>6.1538461538461533</v>
+        <v>9.0617283950617296</v>
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
-        <v>7.6923076923076916</v>
+        <v>11.327160493827162</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
-        <v>9.2307692307692299</v>
+        <v>13.592592592592595</v>
       </c>
       <c r="I14">
         <f t="shared" si="1"/>
-        <v>10.769230769230768</v>
+        <v>15.858024691358027</v>
       </c>
       <c r="J14">
         <f t="shared" si="1"/>
-        <v>12.307692307692307</v>
+        <v>18.123456790123459</v>
       </c>
       <c r="K14">
         <f t="shared" si="1"/>
-        <v>13.846153846153845</v>
+        <v>20.388888888888893</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>15.384615384615383</v>
+        <v>22.654320987654323</v>
       </c>
       <c r="M14">
         <f t="shared" si="1"/>
-        <v>16.92307692307692</v>
+        <v>24.919753086419757</v>
       </c>
       <c r="N14">
         <f t="shared" si="1"/>
-        <v>18.46153846153846</v>
+        <v>27.18518518518519</v>
       </c>
       <c r="O14">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>29.450617283950621</v>
       </c>
       <c r="P14">
         <f t="shared" si="1"/>
-        <v>21.538461538461537</v>
+        <v>31.716049382716054</v>
       </c>
       <c r="Q14">
         <f t="shared" si="1"/>
-        <v>23.076923076923073</v>
+        <v>33.981481481481488</v>
       </c>
       <c r="R14">
         <f t="shared" si="1"/>
-        <v>24.615384615384613</v>
+        <v>36.246913580246918</v>
       </c>
       <c r="S14">
         <f t="shared" si="1"/>
-        <v>26.153846153846153</v>
+        <v>38.512345679012348</v>
       </c>
       <c r="T14">
         <f t="shared" si="1"/>
-        <v>27.69230769230769</v>
+        <v>40.777777777777786</v>
       </c>
       <c r="U14">
         <f t="shared" si="1"/>
-        <v>29.230769230769226</v>
+        <v>43.043209876543216</v>
       </c>
       <c r="V14">
         <f t="shared" si="1"/>
-        <v>30.769230769230766</v>
+        <v>45.308641975308646</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
@@ -6665,87 +6665,87 @@
       </c>
       <c r="B15">
         <f t="shared" si="2"/>
-        <v>3.6363636363636362</v>
+        <v>5.1690140845070429</v>
       </c>
       <c r="C15">
         <f t="shared" si="3"/>
-        <v>0.90909090909090906</v>
+        <v>1.2922535211267607</v>
       </c>
       <c r="D15">
         <f t="shared" si="3"/>
-        <v>1.8181818181818181</v>
+        <v>2.5845070422535215</v>
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
-        <v>2.7272727272727271</v>
+        <v>3.876760563380282</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>3.6363636363636362</v>
+        <v>5.1690140845070429</v>
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>4.545454545454545</v>
+        <v>6.4612676056338039</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>5.4545454545454541</v>
+        <v>7.7535211267605639</v>
       </c>
       <c r="I15">
         <f t="shared" si="1"/>
-        <v>6.3636363636363633</v>
+        <v>9.0457746478873258</v>
       </c>
       <c r="J15">
         <f t="shared" si="1"/>
-        <v>7.2727272727272725</v>
+        <v>10.338028169014086</v>
       </c>
       <c r="K15">
         <f t="shared" si="1"/>
-        <v>8.1818181818181817</v>
+        <v>11.630281690140846</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>9.0909090909090899</v>
+        <v>12.922535211267608</v>
       </c>
       <c r="M15">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>14.214788732394368</v>
       </c>
       <c r="N15">
         <f t="shared" si="1"/>
-        <v>10.909090909090908</v>
+        <v>15.507042253521128</v>
       </c>
       <c r="O15">
         <f t="shared" si="1"/>
-        <v>11.818181818181818</v>
+        <v>16.799295774647888</v>
       </c>
       <c r="P15">
         <f t="shared" si="1"/>
-        <v>12.727272727272727</v>
+        <v>18.091549295774652</v>
       </c>
       <c r="Q15">
         <f t="shared" si="1"/>
-        <v>13.636363636363637</v>
+        <v>19.383802816901412</v>
       </c>
       <c r="R15">
         <f t="shared" si="1"/>
-        <v>14.545454545454545</v>
+        <v>20.676056338028172</v>
       </c>
       <c r="S15">
         <f t="shared" si="1"/>
-        <v>15.454545454545453</v>
+        <v>21.968309859154932</v>
       </c>
       <c r="T15">
         <f t="shared" si="1"/>
-        <v>16.363636363636363</v>
+        <v>23.260563380281692</v>
       </c>
       <c r="U15">
         <f t="shared" si="1"/>
-        <v>17.272727272727273</v>
+        <v>24.552816901408455</v>
       </c>
       <c r="V15">
         <f t="shared" si="1"/>
-        <v>18.18181818181818</v>
+        <v>25.845070422535215</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
@@ -6754,87 +6754,87 @@
       </c>
       <c r="B16">
         <f t="shared" si="2"/>
-        <v>3.6363636363636362</v>
+        <v>5.1690140845070429</v>
       </c>
       <c r="C16">
         <f t="shared" si="3"/>
-        <v>0.90909090909090906</v>
+        <v>1.2922535211267607</v>
       </c>
       <c r="D16">
         <f t="shared" si="3"/>
-        <v>1.8181818181818181</v>
+        <v>2.5845070422535215</v>
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>2.7272727272727271</v>
+        <v>3.876760563380282</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>3.6363636363636362</v>
+        <v>5.1690140845070429</v>
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>4.545454545454545</v>
+        <v>6.4612676056338039</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>5.4545454545454541</v>
+        <v>7.7535211267605639</v>
       </c>
       <c r="I16">
         <f t="shared" si="1"/>
-        <v>6.3636363636363633</v>
+        <v>9.0457746478873258</v>
       </c>
       <c r="J16">
         <f t="shared" si="1"/>
-        <v>7.2727272727272725</v>
+        <v>10.338028169014086</v>
       </c>
       <c r="K16">
         <f t="shared" si="1"/>
-        <v>8.1818181818181817</v>
+        <v>11.630281690140846</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>9.0909090909090899</v>
+        <v>12.922535211267608</v>
       </c>
       <c r="M16">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>14.214788732394368</v>
       </c>
       <c r="N16">
         <f t="shared" si="1"/>
-        <v>10.909090909090908</v>
+        <v>15.507042253521128</v>
       </c>
       <c r="O16">
         <f t="shared" si="1"/>
-        <v>11.818181818181818</v>
+        <v>16.799295774647888</v>
       </c>
       <c r="P16">
         <f t="shared" si="1"/>
-        <v>12.727272727272727</v>
+        <v>18.091549295774652</v>
       </c>
       <c r="Q16">
         <f t="shared" si="1"/>
-        <v>13.636363636363637</v>
+        <v>19.383802816901412</v>
       </c>
       <c r="R16">
         <f t="shared" si="1"/>
-        <v>14.545454545454545</v>
+        <v>20.676056338028172</v>
       </c>
       <c r="S16">
         <f t="shared" si="1"/>
-        <v>15.454545454545453</v>
+        <v>21.968309859154932</v>
       </c>
       <c r="T16">
         <f t="shared" si="1"/>
-        <v>16.363636363636363</v>
+        <v>23.260563380281692</v>
       </c>
       <c r="U16">
         <f t="shared" si="1"/>
-        <v>17.272727272727273</v>
+        <v>24.552816901408455</v>
       </c>
       <c r="V16">
         <f t="shared" si="1"/>
-        <v>18.18181818181818</v>
+        <v>25.845070422535215</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
@@ -6843,87 +6843,87 @@
       </c>
       <c r="B17">
         <f t="shared" si="2"/>
-        <v>1.0526315789473684</v>
+        <v>1.4448818897637796</v>
       </c>
       <c r="C17">
         <f t="shared" si="3"/>
-        <v>0.26315789473684209</v>
+        <v>0.36122047244094491</v>
       </c>
       <c r="D17">
         <f t="shared" si="3"/>
-        <v>0.52631578947368418</v>
+        <v>0.72244094488188981</v>
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
-        <v>0.78947368421052633</v>
+        <v>1.0836614173228347</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>1.0526315789473684</v>
+        <v>1.4448818897637796</v>
       </c>
       <c r="G17">
         <f t="shared" si="1"/>
-        <v>1.3157894736842104</v>
+        <v>1.8061023622047245</v>
       </c>
       <c r="H17">
         <f t="shared" si="1"/>
-        <v>1.5789473684210527</v>
+        <v>2.1673228346456694</v>
       </c>
       <c r="I17">
         <f t="shared" si="1"/>
-        <v>1.8421052631578947</v>
+        <v>2.5285433070866143</v>
       </c>
       <c r="J17">
         <f t="shared" si="1"/>
-        <v>2.1052631578947367</v>
+        <v>2.8897637795275593</v>
       </c>
       <c r="K17">
         <f t="shared" si="1"/>
-        <v>2.3684210526315788</v>
+        <v>3.2509842519685042</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>2.6315789473684208</v>
+        <v>3.6122047244094491</v>
       </c>
       <c r="M17">
         <f t="shared" si="1"/>
-        <v>2.8947368421052628</v>
+        <v>3.973425196850394</v>
       </c>
       <c r="N17">
         <f t="shared" si="1"/>
-        <v>3.1578947368421053</v>
+        <v>4.3346456692913389</v>
       </c>
       <c r="O17">
         <f t="shared" si="1"/>
-        <v>3.4210526315789473</v>
+        <v>4.6958661417322833</v>
       </c>
       <c r="P17">
         <f t="shared" si="1"/>
-        <v>3.6842105263157894</v>
+        <v>5.0570866141732287</v>
       </c>
       <c r="Q17">
         <f t="shared" si="1"/>
-        <v>3.9473684210526314</v>
+        <v>5.418307086614174</v>
       </c>
       <c r="R17">
         <f t="shared" si="1"/>
-        <v>4.2105263157894735</v>
+        <v>5.7795275590551185</v>
       </c>
       <c r="S17">
         <f t="shared" si="1"/>
-        <v>4.4736842105263159</v>
+        <v>6.140748031496063</v>
       </c>
       <c r="T17">
         <f t="shared" si="1"/>
-        <v>4.7368421052631575</v>
+        <v>6.5019685039370083</v>
       </c>
       <c r="U17">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6.8631889763779537</v>
       </c>
       <c r="V17">
         <f t="shared" si="1"/>
-        <v>5.2631578947368416</v>
+        <v>7.2244094488188981</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
@@ -6951,91 +6951,91 @@
       </c>
       <c r="B21">
         <f>$B$2*A21/($B$1 + A21)</f>
-        <v>19.138755980861244</v>
+        <v>34.59000942507069</v>
       </c>
       <c r="C21">
         <f>C7*$B$3</f>
-        <v>7.1770334928229665E-2</v>
+        <v>0.12971253534401508</v>
       </c>
       <c r="D21">
         <f t="shared" ref="D21:V31" si="4">D7*$B$3</f>
-        <v>0.14354066985645933</v>
+        <v>0.25942507068803017</v>
       </c>
       <c r="E21">
         <f t="shared" si="4"/>
-        <v>0.21531100478468898</v>
+        <v>0.38913760603204522</v>
       </c>
       <c r="F21">
         <f t="shared" si="4"/>
-        <v>0.28708133971291866</v>
+        <v>0.51885014137606034</v>
       </c>
       <c r="G21">
         <f t="shared" si="4"/>
-        <v>0.35885167464114831</v>
+        <v>0.64856267672007539</v>
       </c>
       <c r="H21">
         <f t="shared" si="4"/>
-        <v>0.43062200956937796</v>
+        <v>0.77827521206409045</v>
       </c>
       <c r="I21">
         <f t="shared" si="4"/>
-        <v>0.50239234449760761</v>
+        <v>0.90798774740810562</v>
       </c>
       <c r="J21">
         <f t="shared" si="4"/>
-        <v>0.57416267942583732</v>
+        <v>1.0377002827521207</v>
       </c>
       <c r="K21">
         <f t="shared" si="4"/>
-        <v>0.64593301435406703</v>
+        <v>1.1674128180961356</v>
       </c>
       <c r="L21">
         <f t="shared" si="4"/>
-        <v>0.71770334928229662</v>
+        <v>1.2971253534401508</v>
       </c>
       <c r="M21">
         <f t="shared" si="4"/>
-        <v>0.78947368421052633</v>
+        <v>1.426837888784166</v>
       </c>
       <c r="N21">
         <f t="shared" si="4"/>
-        <v>0.86124401913875592</v>
+        <v>1.5565504241281809</v>
       </c>
       <c r="O21">
         <f t="shared" si="4"/>
-        <v>0.93301435406698563</v>
+        <v>1.6862629594721961</v>
       </c>
       <c r="P21">
         <f t="shared" si="4"/>
-        <v>1.0047846889952152</v>
+        <v>1.8159754948162112</v>
       </c>
       <c r="Q21">
         <f t="shared" si="4"/>
-        <v>1.0765550239234452</v>
+        <v>1.9456880301602264</v>
       </c>
       <c r="R21">
         <f t="shared" si="4"/>
-        <v>1.1483253588516746</v>
+        <v>2.0754005655042413</v>
       </c>
       <c r="S21">
         <f t="shared" si="4"/>
-        <v>1.2200956937799041</v>
+        <v>2.2051131008482563</v>
       </c>
       <c r="T21">
         <f t="shared" si="4"/>
-        <v>1.2918660287081341</v>
+        <v>2.3348256361922712</v>
       </c>
       <c r="U21">
         <f t="shared" si="4"/>
-        <v>1.3636363636363635</v>
+        <v>2.4645381715362866</v>
       </c>
       <c r="V21">
         <f t="shared" si="4"/>
-        <v>1.4354066985645932</v>
+        <v>2.5942507068803016</v>
       </c>
       <c r="X21">
         <f>SLOPE(C21:V21,$C$6:$V$6)/$B$3</f>
-        <v>19.138755980861244</v>
+        <v>34.59000942507069</v>
       </c>
       <c r="Z21" s="1" t="s">
         <v>9</v>
@@ -7047,91 +7047,91 @@
       </c>
       <c r="B22">
         <f t="shared" ref="B22:B31" si="5">$B$2*A22/($B$1 + A22)</f>
-        <v>18.348623853211009</v>
+        <v>32.70944741532977</v>
       </c>
       <c r="C22">
         <f t="shared" ref="C22:R31" si="6">C8*$B$3</f>
-        <v>6.8807339449541288E-2</v>
+        <v>0.12266042780748664</v>
       </c>
       <c r="D22">
         <f t="shared" si="6"/>
-        <v>0.13761467889908258</v>
+        <v>0.24532085561497327</v>
       </c>
       <c r="E22">
         <f t="shared" si="6"/>
-        <v>0.20642201834862384</v>
+        <v>0.36798128342245989</v>
       </c>
       <c r="F22">
         <f t="shared" si="6"/>
-        <v>0.27522935779816515</v>
+        <v>0.49064171122994654</v>
       </c>
       <c r="G22">
         <f t="shared" si="6"/>
-        <v>0.34403669724770641</v>
+        <v>0.61330213903743314</v>
       </c>
       <c r="H22">
         <f t="shared" si="6"/>
-        <v>0.41284403669724767</v>
+        <v>0.73596256684491979</v>
       </c>
       <c r="I22">
         <f t="shared" si="6"/>
-        <v>0.48165137614678905</v>
+        <v>0.85862299465240643</v>
       </c>
       <c r="J22">
         <f t="shared" si="6"/>
-        <v>0.55045871559633031</v>
+        <v>0.98128342245989308</v>
       </c>
       <c r="K22">
         <f t="shared" si="6"/>
-        <v>0.61926605504587151</v>
+        <v>1.1039438502673795</v>
       </c>
       <c r="L22">
         <f t="shared" si="6"/>
-        <v>0.68807339449541283</v>
+        <v>1.2266042780748663</v>
       </c>
       <c r="M22">
         <f t="shared" si="6"/>
-        <v>0.75688073394495414</v>
+        <v>1.3492647058823528</v>
       </c>
       <c r="N22">
         <f t="shared" si="6"/>
-        <v>0.82568807339449535</v>
+        <v>1.4719251336898396</v>
       </c>
       <c r="O22">
         <f t="shared" si="6"/>
-        <v>0.89449541284403666</v>
+        <v>1.5945855614973263</v>
       </c>
       <c r="P22">
         <f t="shared" si="6"/>
-        <v>0.96330275229357809</v>
+        <v>1.7172459893048129</v>
       </c>
       <c r="Q22">
         <f t="shared" si="6"/>
-        <v>1.0321100917431192</v>
+        <v>1.8399064171122996</v>
       </c>
       <c r="R22">
         <f t="shared" si="6"/>
-        <v>1.1009174311926606</v>
+        <v>1.9625668449197862</v>
       </c>
       <c r="S22">
         <f t="shared" si="4"/>
-        <v>1.1697247706422018</v>
+        <v>2.0852272727272729</v>
       </c>
       <c r="T22">
         <f t="shared" si="4"/>
-        <v>1.238532110091743</v>
+        <v>2.207887700534759</v>
       </c>
       <c r="U22">
         <f t="shared" si="4"/>
-        <v>1.3073394495412844</v>
+        <v>2.330548128342246</v>
       </c>
       <c r="V22">
         <f t="shared" si="4"/>
-        <v>1.3761467889908257</v>
+        <v>2.4532085561497325</v>
       </c>
       <c r="X22">
         <f t="shared" ref="X22:X31" si="7">SLOPE(C22:V22,$C$6:$V$6)/$B$3</f>
-        <v>18.348623853211006</v>
+        <v>32.70944741532977</v>
       </c>
       <c r="Z22" s="1" t="s">
         <v>10</v>
@@ -7143,91 +7143,91 @@
       </c>
       <c r="B23">
         <f t="shared" si="5"/>
-        <v>17.721518987341771</v>
+        <v>31.253041362530414</v>
       </c>
       <c r="C23">
         <f t="shared" si="6"/>
-        <v>6.6455696202531639E-2</v>
+        <v>0.11719890510948905</v>
       </c>
       <c r="D23">
         <f t="shared" si="4"/>
-        <v>0.13291139240506328</v>
+        <v>0.2343978102189781</v>
       </c>
       <c r="E23">
         <f t="shared" si="4"/>
-        <v>0.19936708860759492</v>
+        <v>0.35159671532846715</v>
       </c>
       <c r="F23">
         <f t="shared" si="4"/>
-        <v>0.26582278481012656</v>
+        <v>0.4687956204379562</v>
       </c>
       <c r="G23">
         <f t="shared" si="4"/>
-        <v>0.33227848101265817</v>
+        <v>0.58599452554744524</v>
       </c>
       <c r="H23">
         <f t="shared" si="4"/>
-        <v>0.39873417721518983</v>
+        <v>0.70319343065693429</v>
       </c>
       <c r="I23">
         <f t="shared" si="4"/>
-        <v>0.4651898734177215</v>
+        <v>0.82039233576642334</v>
       </c>
       <c r="J23">
         <f t="shared" si="4"/>
-        <v>0.53164556962025311</v>
+        <v>0.93759124087591239</v>
       </c>
       <c r="K23">
         <f t="shared" si="4"/>
-        <v>0.59810126582278478</v>
+        <v>1.0547901459854014</v>
       </c>
       <c r="L23">
         <f t="shared" si="4"/>
-        <v>0.66455696202531633</v>
+        <v>1.1719890510948905</v>
       </c>
       <c r="M23">
         <f t="shared" si="4"/>
-        <v>0.731012658227848</v>
+        <v>1.2891879562043795</v>
       </c>
       <c r="N23">
         <f t="shared" si="4"/>
-        <v>0.79746835443037967</v>
+        <v>1.4063868613138686</v>
       </c>
       <c r="O23">
         <f t="shared" si="4"/>
-        <v>0.86392405063291133</v>
+        <v>1.5235857664233576</v>
       </c>
       <c r="P23">
         <f t="shared" si="4"/>
-        <v>0.930379746835443</v>
+        <v>1.6407846715328467</v>
       </c>
       <c r="Q23">
         <f t="shared" si="4"/>
-        <v>0.99683544303797456</v>
+        <v>1.7579835766423357</v>
       </c>
       <c r="R23">
         <f t="shared" si="4"/>
-        <v>1.0632911392405062</v>
+        <v>1.8751824817518248</v>
       </c>
       <c r="S23">
         <f t="shared" si="4"/>
-        <v>1.1297468354430378</v>
+        <v>1.9923813868613136</v>
       </c>
       <c r="T23">
         <f t="shared" si="4"/>
-        <v>1.1962025316455696</v>
+        <v>2.1095802919708029</v>
       </c>
       <c r="U23">
         <f t="shared" si="4"/>
-        <v>1.2626582278481011</v>
+        <v>2.2267791970802921</v>
       </c>
       <c r="V23">
         <f t="shared" si="4"/>
-        <v>1.3291139240506327</v>
+        <v>2.343978102189781</v>
       </c>
       <c r="X23">
         <f t="shared" si="7"/>
-        <v>17.721518987341771</v>
+        <v>31.253041362530414</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
@@ -7236,91 +7236,91 @@
       </c>
       <c r="B24">
         <f t="shared" si="5"/>
-        <v>16.326530612244898</v>
+        <v>28.122605363984679</v>
       </c>
       <c r="C24">
         <f t="shared" si="6"/>
-        <v>6.1224489795918366E-2</v>
+        <v>0.10545977011494254</v>
       </c>
       <c r="D24">
         <f t="shared" si="4"/>
-        <v>0.12244897959183673</v>
+        <v>0.21091954022988507</v>
       </c>
       <c r="E24">
         <f t="shared" si="4"/>
-        <v>0.18367346938775511</v>
+        <v>0.31637931034482764</v>
       </c>
       <c r="F24">
         <f t="shared" si="4"/>
-        <v>0.24489795918367346</v>
+        <v>0.42183908045977014</v>
       </c>
       <c r="G24">
         <f t="shared" si="4"/>
-        <v>0.30612244897959184</v>
+        <v>0.52729885057471271</v>
       </c>
       <c r="H24">
         <f t="shared" si="4"/>
-        <v>0.36734693877551022</v>
+        <v>0.63275862068965527</v>
       </c>
       <c r="I24">
         <f t="shared" si="4"/>
-        <v>0.4285714285714286</v>
+        <v>0.73821839080459772</v>
       </c>
       <c r="J24">
         <f t="shared" si="4"/>
-        <v>0.48979591836734693</v>
+        <v>0.84367816091954029</v>
       </c>
       <c r="K24">
         <f t="shared" si="4"/>
-        <v>0.55102040816326536</v>
+        <v>0.94913793103448296</v>
       </c>
       <c r="L24">
         <f t="shared" si="4"/>
-        <v>0.61224489795918369</v>
+        <v>1.0545977011494254</v>
       </c>
       <c r="M24">
         <f t="shared" si="4"/>
-        <v>0.67346938775510201</v>
+        <v>1.1600574712643679</v>
       </c>
       <c r="N24">
         <f t="shared" si="4"/>
-        <v>0.73469387755102045</v>
+        <v>1.2655172413793105</v>
       </c>
       <c r="O24">
         <f t="shared" si="4"/>
-        <v>0.79591836734693877</v>
+        <v>1.3709770114942532</v>
       </c>
       <c r="P24">
         <f t="shared" si="4"/>
-        <v>0.85714285714285721</v>
+        <v>1.4764367816091954</v>
       </c>
       <c r="Q24">
         <f t="shared" si="4"/>
-        <v>0.91836734693877542</v>
+        <v>1.5818965517241381</v>
       </c>
       <c r="R24">
         <f t="shared" si="4"/>
-        <v>0.97959183673469385</v>
+        <v>1.6873563218390806</v>
       </c>
       <c r="S24">
         <f t="shared" si="4"/>
-        <v>1.0408163265306121</v>
+        <v>1.7928160919540232</v>
       </c>
       <c r="T24">
         <f t="shared" si="4"/>
-        <v>1.1020408163265307</v>
+        <v>1.8982758620689659</v>
       </c>
       <c r="U24">
         <f t="shared" si="4"/>
-        <v>1.1632653061224489</v>
+        <v>2.0037356321839082</v>
       </c>
       <c r="V24">
         <f t="shared" si="4"/>
-        <v>1.2244897959183674</v>
+        <v>2.1091954022988508</v>
       </c>
       <c r="X24">
         <f t="shared" si="7"/>
-        <v>16.326530612244898</v>
+        <v>28.122605363984679</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
@@ -7329,91 +7329,91 @@
       </c>
       <c r="B25">
         <f t="shared" si="5"/>
-        <v>13.793103448275863</v>
+        <v>22.795031055900626</v>
       </c>
       <c r="C25">
         <f t="shared" si="6"/>
-        <v>5.1724137931034482E-2</v>
+        <v>8.5481366459627339E-2</v>
       </c>
       <c r="D25">
         <f t="shared" si="4"/>
-        <v>0.10344827586206896</v>
+        <v>0.17096273291925468</v>
       </c>
       <c r="E25">
         <f t="shared" si="4"/>
-        <v>0.15517241379310345</v>
+        <v>0.25644409937888207</v>
       </c>
       <c r="F25">
         <f t="shared" si="4"/>
-        <v>0.20689655172413793</v>
+        <v>0.34192546583850936</v>
       </c>
       <c r="G25">
         <f t="shared" si="4"/>
-        <v>0.25862068965517243</v>
+        <v>0.4274068322981367</v>
       </c>
       <c r="H25">
         <f t="shared" si="4"/>
-        <v>0.31034482758620691</v>
+        <v>0.51288819875776415</v>
       </c>
       <c r="I25">
         <f t="shared" si="4"/>
-        <v>0.36206896551724144</v>
+        <v>0.59836956521739137</v>
       </c>
       <c r="J25">
         <f t="shared" si="4"/>
-        <v>0.41379310344827586</v>
+        <v>0.68385093167701871</v>
       </c>
       <c r="K25">
         <f t="shared" si="4"/>
-        <v>0.46551724137931033</v>
+        <v>0.76933229813664616</v>
       </c>
       <c r="L25">
         <f t="shared" si="4"/>
-        <v>0.51724137931034486</v>
+        <v>0.85481366459627339</v>
       </c>
       <c r="M25">
         <f t="shared" si="4"/>
-        <v>0.56896551724137934</v>
+        <v>0.94029503105590084</v>
       </c>
       <c r="N25">
         <f t="shared" si="4"/>
-        <v>0.62068965517241381</v>
+        <v>1.0257763975155283</v>
       </c>
       <c r="O25">
         <f t="shared" si="4"/>
-        <v>0.67241379310344829</v>
+        <v>1.1112577639751555</v>
       </c>
       <c r="P25">
         <f t="shared" si="4"/>
-        <v>0.72413793103448287</v>
+        <v>1.1967391304347827</v>
       </c>
       <c r="Q25">
         <f t="shared" si="4"/>
-        <v>0.77586206896551724</v>
+        <v>1.2822204968944102</v>
       </c>
       <c r="R25">
         <f t="shared" si="4"/>
-        <v>0.82758620689655171</v>
+        <v>1.3677018633540374</v>
       </c>
       <c r="S25">
         <f t="shared" si="4"/>
-        <v>0.8793103448275863</v>
+        <v>1.4531832298136649</v>
       </c>
       <c r="T25">
         <f t="shared" si="4"/>
-        <v>0.93103448275862066</v>
+        <v>1.5386645962732923</v>
       </c>
       <c r="U25">
         <f t="shared" si="4"/>
-        <v>0.98275862068965525</v>
+        <v>1.6241459627329196</v>
       </c>
       <c r="V25">
         <f t="shared" si="4"/>
-        <v>1.0344827586206897</v>
+        <v>1.7096273291925468</v>
       </c>
       <c r="X25">
         <f t="shared" si="7"/>
-        <v>13.793103448275865</v>
+        <v>22.79503105590063</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
@@ -7422,91 +7422,91 @@
       </c>
       <c r="B26">
         <f t="shared" si="5"/>
-        <v>10.526315789473685</v>
+        <v>16.531531531531535</v>
       </c>
       <c r="C26">
         <f t="shared" si="6"/>
-        <v>3.9473684210526321E-2</v>
+        <v>6.1993243243243255E-2</v>
       </c>
       <c r="D26">
         <f t="shared" si="4"/>
-        <v>7.8947368421052641E-2</v>
+        <v>0.12398648648648651</v>
       </c>
       <c r="E26">
         <f t="shared" si="4"/>
-        <v>0.11842105263157895</v>
+        <v>0.18597972972972976</v>
       </c>
       <c r="F26">
         <f t="shared" si="4"/>
-        <v>0.15789473684210528</v>
+        <v>0.24797297297297302</v>
       </c>
       <c r="G26">
         <f t="shared" si="4"/>
-        <v>0.19736842105263158</v>
+        <v>0.30996621621621623</v>
       </c>
       <c r="H26">
         <f t="shared" si="4"/>
-        <v>0.23684210526315791</v>
+        <v>0.37195945945945952</v>
       </c>
       <c r="I26">
         <f t="shared" si="4"/>
-        <v>0.27631578947368424</v>
+        <v>0.43395270270270281</v>
       </c>
       <c r="J26">
         <f t="shared" si="4"/>
-        <v>0.31578947368421056</v>
+        <v>0.49594594594594604</v>
       </c>
       <c r="K26">
         <f t="shared" si="4"/>
-        <v>0.35526315789473684</v>
+        <v>0.55793918918918928</v>
       </c>
       <c r="L26">
         <f t="shared" si="4"/>
-        <v>0.39473684210526316</v>
+        <v>0.61993243243243246</v>
       </c>
       <c r="M26">
         <f t="shared" si="4"/>
-        <v>0.43421052631578949</v>
+        <v>0.68192567567567575</v>
       </c>
       <c r="N26">
         <f t="shared" si="4"/>
-        <v>0.47368421052631582</v>
+        <v>0.74391891891891904</v>
       </c>
       <c r="O26">
         <f t="shared" si="4"/>
-        <v>0.51315789473684215</v>
+        <v>0.80591216216216222</v>
       </c>
       <c r="P26">
         <f t="shared" si="4"/>
-        <v>0.55263157894736847</v>
+        <v>0.86790540540540562</v>
       </c>
       <c r="Q26">
         <f t="shared" si="4"/>
-        <v>0.59210526315789469</v>
+        <v>0.9298986486486488</v>
       </c>
       <c r="R26">
         <f t="shared" si="4"/>
-        <v>0.63157894736842113</v>
+        <v>0.99189189189189209</v>
       </c>
       <c r="S26">
         <f t="shared" si="4"/>
-        <v>0.67105263157894746</v>
+        <v>1.0538851351351353</v>
       </c>
       <c r="T26">
         <f t="shared" si="4"/>
-        <v>0.71052631578947367</v>
+        <v>1.1158783783783786</v>
       </c>
       <c r="U26">
         <f t="shared" si="4"/>
-        <v>0.75</v>
+        <v>1.1778716216216216</v>
       </c>
       <c r="V26">
         <f t="shared" si="4"/>
-        <v>0.78947368421052633</v>
+        <v>1.2398648648648649</v>
       </c>
       <c r="X26">
         <f t="shared" si="7"/>
-        <v>10.526315789473689</v>
+        <v>16.531531531531531</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
@@ -7515,91 +7515,91 @@
       </c>
       <c r="B27">
         <f t="shared" si="5"/>
-        <v>8.75</v>
+        <v>13.380208333333334</v>
       </c>
       <c r="C27">
         <f t="shared" si="6"/>
-        <v>3.2812500000000001E-2</v>
+        <v>5.0175781250000002E-2</v>
       </c>
       <c r="D27">
         <f t="shared" si="4"/>
-        <v>6.5625000000000003E-2</v>
+        <v>0.1003515625</v>
       </c>
       <c r="E27">
         <f t="shared" si="4"/>
-        <v>9.8437499999999997E-2</v>
+        <v>0.15052734374999999</v>
       </c>
       <c r="F27">
         <f t="shared" si="4"/>
-        <v>0.13125000000000001</v>
+        <v>0.20070312500000001</v>
       </c>
       <c r="G27">
         <f t="shared" si="4"/>
-        <v>0.1640625</v>
+        <v>0.25087890625000003</v>
       </c>
       <c r="H27">
         <f t="shared" si="4"/>
-        <v>0.19687499999999999</v>
+        <v>0.30105468749999997</v>
       </c>
       <c r="I27">
         <f t="shared" si="4"/>
-        <v>0.22968749999999999</v>
+        <v>0.35123046875000002</v>
       </c>
       <c r="J27">
         <f t="shared" si="4"/>
-        <v>0.26250000000000001</v>
+        <v>0.40140625000000002</v>
       </c>
       <c r="K27">
         <f t="shared" si="4"/>
-        <v>0.29531249999999998</v>
+        <v>0.45158203124999996</v>
       </c>
       <c r="L27">
         <f t="shared" si="4"/>
-        <v>0.328125</v>
+        <v>0.50175781250000007</v>
       </c>
       <c r="M27">
         <f t="shared" si="4"/>
-        <v>0.36093749999999997</v>
+        <v>0.55193359375000006</v>
       </c>
       <c r="N27">
         <f t="shared" si="4"/>
-        <v>0.39374999999999999</v>
+        <v>0.60210937499999995</v>
       </c>
       <c r="O27">
         <f t="shared" si="4"/>
-        <v>0.42656250000000001</v>
+        <v>0.65228515625000005</v>
       </c>
       <c r="P27">
         <f t="shared" si="4"/>
-        <v>0.45937499999999998</v>
+        <v>0.70246093750000005</v>
       </c>
       <c r="Q27">
         <f t="shared" si="4"/>
-        <v>0.4921875</v>
+        <v>0.75263671874999993</v>
       </c>
       <c r="R27">
         <f t="shared" si="4"/>
-        <v>0.52500000000000002</v>
+        <v>0.80281250000000004</v>
       </c>
       <c r="S27">
         <f t="shared" si="4"/>
-        <v>0.55781249999999993</v>
+        <v>0.85298828125000004</v>
       </c>
       <c r="T27">
         <f t="shared" si="4"/>
-        <v>0.59062499999999996</v>
+        <v>0.90316406249999992</v>
       </c>
       <c r="U27">
         <f t="shared" si="4"/>
-        <v>0.62343749999999998</v>
+        <v>0.95333984375000003</v>
       </c>
       <c r="V27">
         <f t="shared" si="4"/>
-        <v>0.65625</v>
+        <v>1.0035156250000001</v>
       </c>
       <c r="X27">
         <f t="shared" si="7"/>
-        <v>8.75</v>
+        <v>13.380208333333332</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
@@ -7608,91 +7608,91 @@
       </c>
       <c r="B28">
         <f t="shared" si="5"/>
-        <v>6.1538461538461533</v>
+        <v>9.0617283950617296</v>
       </c>
       <c r="C28">
         <f t="shared" si="6"/>
-        <v>2.3076923076923075E-2</v>
+        <v>3.3981481481481488E-2</v>
       </c>
       <c r="D28">
         <f t="shared" si="4"/>
-        <v>4.6153846153846149E-2</v>
+        <v>6.7962962962962975E-2</v>
       </c>
       <c r="E28">
         <f t="shared" si="4"/>
-        <v>6.9230769230769221E-2</v>
+        <v>0.10194444444444446</v>
       </c>
       <c r="F28">
         <f t="shared" si="4"/>
-        <v>9.2307692307692299E-2</v>
+        <v>0.13592592592592595</v>
       </c>
       <c r="G28">
         <f t="shared" si="4"/>
-        <v>0.11538461538461536</v>
+        <v>0.16990740740740742</v>
       </c>
       <c r="H28">
         <f t="shared" si="4"/>
-        <v>0.13846153846153844</v>
+        <v>0.20388888888888893</v>
       </c>
       <c r="I28">
         <f t="shared" si="4"/>
-        <v>0.16153846153846152</v>
+        <v>0.2378703703703704</v>
       </c>
       <c r="J28">
         <f t="shared" si="4"/>
-        <v>0.1846153846153846</v>
+        <v>0.2718518518518519</v>
       </c>
       <c r="K28">
         <f t="shared" si="4"/>
-        <v>0.20769230769230768</v>
+        <v>0.3058333333333334</v>
       </c>
       <c r="L28">
         <f t="shared" si="4"/>
-        <v>0.23076923076923073</v>
+        <v>0.33981481481481485</v>
       </c>
       <c r="M28">
         <f t="shared" si="4"/>
-        <v>0.25384615384615378</v>
+        <v>0.37379629629629635</v>
       </c>
       <c r="N28">
         <f t="shared" si="4"/>
-        <v>0.27692307692307688</v>
+        <v>0.40777777777777785</v>
       </c>
       <c r="O28">
         <f t="shared" si="4"/>
-        <v>0.3</v>
+        <v>0.4417592592592593</v>
       </c>
       <c r="P28">
         <f t="shared" si="4"/>
-        <v>0.32307692307692304</v>
+        <v>0.4757407407407408</v>
       </c>
       <c r="Q28">
         <f t="shared" si="4"/>
-        <v>0.34615384615384609</v>
+        <v>0.5097222222222223</v>
       </c>
       <c r="R28">
         <f t="shared" si="4"/>
-        <v>0.3692307692307692</v>
+        <v>0.5437037037037038</v>
       </c>
       <c r="S28">
         <f t="shared" si="4"/>
-        <v>0.3923076923076923</v>
+        <v>0.57768518518518519</v>
       </c>
       <c r="T28">
         <f t="shared" si="4"/>
-        <v>0.41538461538461535</v>
+        <v>0.6116666666666668</v>
       </c>
       <c r="U28">
         <f t="shared" si="4"/>
-        <v>0.4384615384615384</v>
+        <v>0.64564814814814819</v>
       </c>
       <c r="V28">
         <f t="shared" si="4"/>
-        <v>0.46153846153846145</v>
+        <v>0.67962962962962969</v>
       </c>
       <c r="X28">
         <f t="shared" si="7"/>
-        <v>6.1538461538461533</v>
+        <v>9.0617283950617278</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
@@ -7701,91 +7701,91 @@
       </c>
       <c r="B29">
         <f t="shared" si="5"/>
-        <v>3.6363636363636362</v>
+        <v>5.1690140845070429</v>
       </c>
       <c r="C29">
         <f t="shared" si="6"/>
-        <v>1.3636363636363636E-2</v>
+        <v>1.938380281690141E-2</v>
       </c>
       <c r="D29">
         <f t="shared" si="4"/>
-        <v>2.7272727272727271E-2</v>
+        <v>3.8767605633802819E-2</v>
       </c>
       <c r="E29">
         <f t="shared" si="4"/>
-        <v>4.0909090909090902E-2</v>
+        <v>5.8151408450704226E-2</v>
       </c>
       <c r="F29">
         <f t="shared" si="4"/>
-        <v>5.4545454545454543E-2</v>
+        <v>7.7535211267605639E-2</v>
       </c>
       <c r="G29">
         <f t="shared" si="4"/>
-        <v>6.8181818181818177E-2</v>
+        <v>9.6919014084507052E-2</v>
       </c>
       <c r="H29">
         <f t="shared" si="4"/>
-        <v>8.1818181818181804E-2</v>
+        <v>0.11630281690140845</v>
       </c>
       <c r="I29">
         <f t="shared" si="4"/>
-        <v>9.5454545454545445E-2</v>
+        <v>0.13568661971830989</v>
       </c>
       <c r="J29">
         <f t="shared" si="4"/>
-        <v>0.10909090909090909</v>
+        <v>0.15507042253521128</v>
       </c>
       <c r="K29">
         <f t="shared" si="4"/>
-        <v>0.12272727272727273</v>
+        <v>0.17445422535211269</v>
       </c>
       <c r="L29">
         <f t="shared" si="4"/>
-        <v>0.13636363636363635</v>
+        <v>0.1938380281690141</v>
       </c>
       <c r="M29">
         <f t="shared" si="4"/>
-        <v>0.15</v>
+        <v>0.21322183098591552</v>
       </c>
       <c r="N29">
         <f t="shared" si="4"/>
-        <v>0.16363636363636361</v>
+        <v>0.2326056338028169</v>
       </c>
       <c r="O29">
         <f t="shared" si="4"/>
-        <v>0.17727272727272728</v>
+        <v>0.25198943661971829</v>
       </c>
       <c r="P29">
         <f t="shared" si="4"/>
-        <v>0.19090909090909089</v>
+        <v>0.27137323943661978</v>
       </c>
       <c r="Q29">
         <f t="shared" si="4"/>
-        <v>0.20454545454545453</v>
+        <v>0.29075704225352117</v>
       </c>
       <c r="R29">
         <f t="shared" si="4"/>
-        <v>0.21818181818181817</v>
+        <v>0.31014084507042256</v>
       </c>
       <c r="S29">
         <f t="shared" si="4"/>
-        <v>0.23181818181818178</v>
+        <v>0.32952464788732394</v>
       </c>
       <c r="T29">
         <f t="shared" si="4"/>
-        <v>0.24545454545454545</v>
+        <v>0.34890845070422538</v>
       </c>
       <c r="U29">
         <f t="shared" si="4"/>
-        <v>0.25909090909090909</v>
+        <v>0.36829225352112682</v>
       </c>
       <c r="V29">
         <f t="shared" si="4"/>
-        <v>0.27272727272727271</v>
+        <v>0.38767605633802821</v>
       </c>
       <c r="X29">
         <f t="shared" si="7"/>
-        <v>3.6363636363636367</v>
+        <v>5.1690140845070429</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.2">
@@ -7794,91 +7794,91 @@
       </c>
       <c r="B30">
         <f t="shared" si="5"/>
-        <v>3.6363636363636362</v>
+        <v>5.1690140845070429</v>
       </c>
       <c r="C30">
         <f t="shared" si="6"/>
-        <v>1.3636363636363636E-2</v>
+        <v>1.938380281690141E-2</v>
       </c>
       <c r="D30">
         <f t="shared" si="4"/>
-        <v>2.7272727272727271E-2</v>
+        <v>3.8767605633802819E-2</v>
       </c>
       <c r="E30">
         <f t="shared" si="4"/>
-        <v>4.0909090909090902E-2</v>
+        <v>5.8151408450704226E-2</v>
       </c>
       <c r="F30">
         <f t="shared" si="4"/>
-        <v>5.4545454545454543E-2</v>
+        <v>7.7535211267605639E-2</v>
       </c>
       <c r="G30">
         <f t="shared" si="4"/>
-        <v>6.8181818181818177E-2</v>
+        <v>9.6919014084507052E-2</v>
       </c>
       <c r="H30">
         <f t="shared" si="4"/>
-        <v>8.1818181818181804E-2</v>
+        <v>0.11630281690140845</v>
       </c>
       <c r="I30">
         <f t="shared" si="4"/>
-        <v>9.5454545454545445E-2</v>
+        <v>0.13568661971830989</v>
       </c>
       <c r="J30">
         <f t="shared" si="4"/>
-        <v>0.10909090909090909</v>
+        <v>0.15507042253521128</v>
       </c>
       <c r="K30">
         <f t="shared" si="4"/>
-        <v>0.12272727272727273</v>
+        <v>0.17445422535211269</v>
       </c>
       <c r="L30">
         <f t="shared" si="4"/>
-        <v>0.13636363636363635</v>
+        <v>0.1938380281690141</v>
       </c>
       <c r="M30">
         <f t="shared" si="4"/>
-        <v>0.15</v>
+        <v>0.21322183098591552</v>
       </c>
       <c r="N30">
         <f t="shared" si="4"/>
-        <v>0.16363636363636361</v>
+        <v>0.2326056338028169</v>
       </c>
       <c r="O30">
         <f t="shared" si="4"/>
-        <v>0.17727272727272728</v>
+        <v>0.25198943661971829</v>
       </c>
       <c r="P30">
         <f t="shared" si="4"/>
-        <v>0.19090909090909089</v>
+        <v>0.27137323943661978</v>
       </c>
       <c r="Q30">
         <f t="shared" si="4"/>
-        <v>0.20454545454545453</v>
+        <v>0.29075704225352117</v>
       </c>
       <c r="R30">
         <f t="shared" si="4"/>
-        <v>0.21818181818181817</v>
+        <v>0.31014084507042256</v>
       </c>
       <c r="S30">
         <f t="shared" si="4"/>
-        <v>0.23181818181818178</v>
+        <v>0.32952464788732394</v>
       </c>
       <c r="T30">
         <f t="shared" si="4"/>
-        <v>0.24545454545454545</v>
+        <v>0.34890845070422538</v>
       </c>
       <c r="U30">
         <f t="shared" si="4"/>
-        <v>0.25909090909090909</v>
+        <v>0.36829225352112682</v>
       </c>
       <c r="V30">
         <f t="shared" si="4"/>
-        <v>0.27272727272727271</v>
+        <v>0.38767605633802821</v>
       </c>
       <c r="X30">
         <f t="shared" si="7"/>
-        <v>3.6363636363636367</v>
+        <v>5.1690140845070429</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
@@ -7887,91 +7887,91 @@
       </c>
       <c r="B31">
         <f t="shared" si="5"/>
-        <v>1.0526315789473684</v>
+        <v>1.4448818897637796</v>
       </c>
       <c r="C31">
         <f t="shared" si="6"/>
-        <v>3.9473684210526308E-3</v>
+        <v>5.4183070866141731E-3</v>
       </c>
       <c r="D31">
         <f t="shared" si="4"/>
-        <v>7.8947368421052617E-3</v>
+        <v>1.0836614173228346E-2</v>
       </c>
       <c r="E31">
         <f t="shared" si="4"/>
-        <v>1.1842105263157895E-2</v>
+        <v>1.6254921259842521E-2</v>
       </c>
       <c r="F31">
         <f t="shared" si="4"/>
-        <v>1.5789473684210523E-2</v>
+        <v>2.1673228346456692E-2</v>
       </c>
       <c r="G31">
         <f t="shared" si="4"/>
-        <v>1.9736842105263157E-2</v>
+        <v>2.7091535433070867E-2</v>
       </c>
       <c r="H31">
         <f t="shared" si="4"/>
-        <v>2.368421052631579E-2</v>
+        <v>3.2509842519685042E-2</v>
       </c>
       <c r="I31">
         <f t="shared" si="4"/>
-        <v>2.763157894736842E-2</v>
+        <v>3.7928149606299214E-2</v>
       </c>
       <c r="J31">
         <f t="shared" si="4"/>
-        <v>3.1578947368421047E-2</v>
+        <v>4.3346456692913385E-2</v>
       </c>
       <c r="K31">
         <f t="shared" si="4"/>
-        <v>3.5526315789473677E-2</v>
+        <v>4.8764763779527563E-2</v>
       </c>
       <c r="L31">
         <f t="shared" si="4"/>
-        <v>3.9473684210526314E-2</v>
+        <v>5.4183070866141735E-2</v>
       </c>
       <c r="M31">
         <f t="shared" si="4"/>
-        <v>4.3421052631578944E-2</v>
+        <v>5.9601377952755906E-2</v>
       </c>
       <c r="N31">
         <f t="shared" si="4"/>
-        <v>4.736842105263158E-2</v>
+        <v>6.5019685039370084E-2</v>
       </c>
       <c r="O31">
         <f t="shared" si="4"/>
-        <v>5.131578947368421E-2</v>
+        <v>7.0437992125984242E-2</v>
       </c>
       <c r="P31">
         <f t="shared" si="4"/>
-        <v>5.526315789473684E-2</v>
+        <v>7.5856299212598427E-2</v>
       </c>
       <c r="Q31">
         <f t="shared" si="4"/>
-        <v>5.921052631578947E-2</v>
+        <v>8.1274606299212612E-2</v>
       </c>
       <c r="R31">
         <f t="shared" si="4"/>
-        <v>6.3157894736842093E-2</v>
+        <v>8.669291338582677E-2</v>
       </c>
       <c r="S31">
         <f t="shared" si="4"/>
-        <v>6.7105263157894737E-2</v>
+        <v>9.2111220472440941E-2</v>
       </c>
       <c r="T31">
         <f t="shared" si="4"/>
-        <v>7.1052631578947353E-2</v>
+        <v>9.7529527559055126E-2</v>
       </c>
       <c r="U31">
         <f t="shared" si="4"/>
-        <v>7.4999999999999997E-2</v>
+        <v>0.1029478346456693</v>
       </c>
       <c r="V31">
         <f t="shared" si="4"/>
-        <v>7.8947368421052627E-2</v>
+        <v>0.10836614173228347</v>
       </c>
       <c r="X31">
         <f t="shared" si="7"/>
-        <v>1.0526315789473686</v>
+        <v>1.4448818897637798</v>
       </c>
     </row>
     <row r="52" spans="3:24" x14ac:dyDescent="0.2">
@@ -8077,947 +8077,947 @@
     <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57">
         <f ca="1">C21*RANDBETWEEN($C$52,$C$53)*0.01+C21</f>
-        <v>7.320574162679426E-2</v>
+        <v>0.13619816211121583</v>
       </c>
       <c r="D57">
         <f t="shared" ref="D57:V67" ca="1" si="26">D21*RANDBETWEEN($C$52,$C$53)*0.01+D21</f>
-        <v>0.14784688995215312</v>
+        <v>0.25164231856738928</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="26"/>
-        <v>0.22177033492822965</v>
+        <v>0.38135485391140433</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="26"/>
-        <v>0.29282296650717704</v>
+        <v>0.53960414703110271</v>
       </c>
       <c r="G57">
         <f t="shared" ca="1" si="26"/>
-        <v>0.36602870813397126</v>
+        <v>0.62910579641847308</v>
       </c>
       <c r="H57">
         <f t="shared" ca="1" si="26"/>
-        <v>0.40909090909090906</v>
+        <v>0.80940622054665412</v>
       </c>
       <c r="I57">
         <f t="shared" ca="1" si="26"/>
-        <v>0.52751196172248804</v>
+        <v>0.87166823751178135</v>
       </c>
       <c r="J57">
         <f t="shared" ca="1" si="26"/>
-        <v>0.58564593301435408</v>
+        <v>1.0169462770970783</v>
       </c>
       <c r="K57">
         <f t="shared" ca="1" si="26"/>
-        <v>0.61363636363636365</v>
+        <v>1.1323904335532515</v>
       </c>
       <c r="L57">
         <f t="shared" ca="1" si="26"/>
-        <v>0.75358851674641147</v>
+        <v>1.3230678605089539</v>
       </c>
       <c r="M57">
         <f t="shared" ca="1" si="26"/>
-        <v>0.78157894736842104</v>
+        <v>1.3697643732327993</v>
       </c>
       <c r="N57">
         <f t="shared" ca="1" si="26"/>
-        <v>0.84401913875598078</v>
+        <v>1.5876814326107445</v>
       </c>
       <c r="O57">
         <f t="shared" ca="1" si="26"/>
-        <v>0.88636363636363635</v>
+        <v>1.7537134778510839</v>
       </c>
       <c r="P57">
         <f t="shared" ca="1" si="26"/>
-        <v>1.0449760765550238</v>
+        <v>1.9067742695570218</v>
       </c>
       <c r="Q57">
         <f t="shared" ca="1" si="26"/>
-        <v>1.0334928229665072</v>
+        <v>1.9067742695570218</v>
       </c>
       <c r="R57">
         <f t="shared" ca="1" si="26"/>
-        <v>1.1253588516746411</v>
+        <v>2.0961545711592837</v>
       </c>
       <c r="S57">
         <f t="shared" ca="1" si="26"/>
-        <v>1.1956937799043061</v>
+        <v>2.2712664938737039</v>
       </c>
       <c r="T57">
         <f t="shared" ca="1" si="26"/>
-        <v>1.3306220095693782</v>
+        <v>2.4048704052780394</v>
       </c>
       <c r="U57">
         <f t="shared" ca="1" si="26"/>
-        <v>1.418181818181818</v>
+        <v>2.5877650801131011</v>
       </c>
       <c r="V57">
         <f t="shared" ca="1" si="26"/>
-        <v>1.5071770334928229</v>
+        <v>2.4904806786050897</v>
       </c>
       <c r="X57">
         <f ca="1">SLOPE(C57:V57,$C$6:$V$6)/$B$3</f>
-        <v>19.45432960391409</v>
+        <v>35.22121207826352</v>
       </c>
     </row>
     <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58">
         <f t="shared" ref="C58:R67" ca="1" si="27">C22*RANDBETWEEN($C$52,$C$53)*0.01+C22</f>
-        <v>7.087155963302752E-2</v>
+        <v>0.1165274064171123</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="27"/>
-        <v>0.13211009174311927</v>
+        <v>0.25268048128342246</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="27"/>
-        <v>0.19610091743119265</v>
+        <v>0.36798128342245989</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="27"/>
-        <v>0.26422018348623855</v>
+        <v>0.49064171122994654</v>
       </c>
       <c r="G58">
         <f t="shared" ca="1" si="27"/>
-        <v>0.34747706422018348</v>
+        <v>0.59490307486631011</v>
       </c>
       <c r="H58">
         <f t="shared" ca="1" si="27"/>
-        <v>0.41284403669724767</v>
+        <v>0.75068181818181823</v>
       </c>
       <c r="I58">
         <f t="shared" ca="1" si="27"/>
-        <v>0.48165137614678905</v>
+        <v>0.85862299465240643</v>
       </c>
       <c r="J58">
         <f t="shared" ca="1" si="27"/>
-        <v>0.54495412844036695</v>
+        <v>0.95184491978609631</v>
       </c>
       <c r="K58">
         <f t="shared" ca="1" si="27"/>
-        <v>0.6316513761467889</v>
+        <v>1.081864973262032</v>
       </c>
       <c r="L58">
         <f t="shared" ca="1" si="27"/>
-        <v>0.72247706422018343</v>
+        <v>1.2879344919786095</v>
       </c>
       <c r="M58">
         <f t="shared" ca="1" si="27"/>
-        <v>0.74931192660550461</v>
+        <v>1.4032352941176469</v>
       </c>
       <c r="N58">
         <f t="shared" ca="1" si="27"/>
-        <v>0.83394495412844027</v>
+        <v>1.4572058823529412</v>
       </c>
       <c r="O58">
         <f t="shared" ca="1" si="27"/>
-        <v>0.88555045871559634</v>
+        <v>1.5626938502673797</v>
       </c>
       <c r="P58">
         <f t="shared" ca="1" si="27"/>
-        <v>0.92477064220183491</v>
+        <v>1.6657286096256685</v>
       </c>
       <c r="Q58">
         <f t="shared" ca="1" si="27"/>
-        <v>1.0837155963302751</v>
+        <v>1.9135026737967915</v>
       </c>
       <c r="R58">
         <f t="shared" ca="1" si="27"/>
-        <v>1.0788990825688074</v>
+        <v>1.8644385026737968</v>
       </c>
       <c r="S58">
         <f t="shared" ca="1" si="26"/>
-        <v>1.2048165137614679</v>
+        <v>1.9809659090909093</v>
       </c>
       <c r="T58">
         <f t="shared" ca="1" si="26"/>
-        <v>1.2633027522935778</v>
+        <v>2.1195721925133686</v>
       </c>
       <c r="U58">
         <f t="shared" ca="1" si="26"/>
-        <v>1.3596330275229358</v>
+        <v>2.4470755347593585</v>
       </c>
       <c r="V58">
         <f t="shared" ca="1" si="26"/>
-        <v>1.3211009174311927</v>
+        <v>2.4532085561497325</v>
       </c>
       <c r="X58">
         <f t="shared" ref="X58:X67" ca="1" si="28">SLOPE(C58:V58,$C$6:$V$6)/$B$3</f>
-        <v>18.522314961716216</v>
+        <v>32.426129494860149</v>
       </c>
     </row>
     <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59">
         <f t="shared" ca="1" si="27"/>
-        <v>6.7784810126582273E-2</v>
+        <v>0.11602691605839416</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="26"/>
-        <v>0.13158227848101264</v>
+        <v>0.22970985401459854</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="26"/>
-        <v>0.20734177215189872</v>
+        <v>0.34104881386861313</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="26"/>
-        <v>0.26316455696202529</v>
+        <v>0.48285948905109488</v>
       </c>
       <c r="G59">
         <f t="shared" ca="1" si="26"/>
-        <v>0.33892405063291131</v>
+        <v>0.58013458029197085</v>
       </c>
       <c r="H59">
         <f t="shared" ca="1" si="26"/>
-        <v>0.41468354430379745</v>
+        <v>0.68209762773722626</v>
       </c>
       <c r="I59">
         <f t="shared" ca="1" si="26"/>
-        <v>0.45123417721518988</v>
+        <v>0.78757664233576641</v>
       </c>
       <c r="J59">
         <f t="shared" ca="1" si="26"/>
-        <v>0.5156962025316455</v>
+        <v>0.96571897810218976</v>
       </c>
       <c r="K59">
         <f t="shared" ca="1" si="26"/>
-        <v>0.59212025316455696</v>
+        <v>1.0758859489051096</v>
       </c>
       <c r="L59">
         <f t="shared" ca="1" si="26"/>
-        <v>0.69113924050632902</v>
+        <v>1.2188686131386861</v>
       </c>
       <c r="M59">
         <f t="shared" ca="1" si="26"/>
-        <v>0.7602531645569619</v>
+        <v>1.314971715328467</v>
       </c>
       <c r="N59">
         <f t="shared" ca="1" si="26"/>
-        <v>0.78949367088607592</v>
+        <v>1.3923229927007299</v>
       </c>
       <c r="O59">
         <f t="shared" ca="1" si="26"/>
-        <v>0.88120253164556961</v>
+        <v>1.5997650547445255</v>
       </c>
       <c r="P59">
         <f t="shared" ca="1" si="26"/>
-        <v>0.92107594936708859</v>
+        <v>1.7064160583941606</v>
       </c>
       <c r="Q59">
         <f t="shared" ca="1" si="26"/>
-        <v>1.0367088607594936</v>
+        <v>1.7931432481751823</v>
       </c>
       <c r="R59">
         <f t="shared" ca="1" si="26"/>
-        <v>1.0101265822784808</v>
+        <v>1.8001751824817518</v>
       </c>
       <c r="S59">
         <f t="shared" ca="1" si="26"/>
-        <v>1.1749367088607592</v>
+        <v>1.9525337591240874</v>
       </c>
       <c r="T59">
         <f t="shared" ca="1" si="26"/>
-        <v>1.136392405063291</v>
+        <v>2.0041012773722628</v>
       </c>
       <c r="U59">
         <f t="shared" ca="1" si="26"/>
-        <v>1.3131645569620252</v>
+        <v>2.1154402372262777</v>
       </c>
       <c r="V59">
         <f t="shared" ca="1" si="26"/>
-        <v>1.2759493670886073</v>
+        <v>2.4611770072992698</v>
       </c>
       <c r="X59">
         <f t="shared" ca="1" si="28"/>
-        <v>17.56189207195203</v>
+        <v>31.024400691509801</v>
       </c>
     </row>
     <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60">
         <f t="shared" ca="1" si="27"/>
-        <v>5.8163265306122446E-2</v>
+        <v>0.10756896551724139</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="26"/>
-        <v>0.12612244897959182</v>
+        <v>0.22146551724137933</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="26"/>
-        <v>0.19285714285714287</v>
+        <v>0.30056034482758626</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="26"/>
-        <v>0.2473469387755102</v>
+        <v>0.44293103448275867</v>
       </c>
       <c r="G60">
         <f t="shared" ca="1" si="26"/>
-        <v>0.3</v>
+        <v>0.50093390804597704</v>
       </c>
       <c r="H60">
         <f t="shared" ca="1" si="26"/>
-        <v>0.3563265306122449</v>
+        <v>0.60112068965517251</v>
       </c>
       <c r="I60">
         <f t="shared" ca="1" si="26"/>
-        <v>0.43714285714285717</v>
+        <v>0.73821839080459772</v>
       </c>
       <c r="J60">
         <f t="shared" ca="1" si="26"/>
-        <v>0.4946938775510204</v>
+        <v>0.80993103448275872</v>
       </c>
       <c r="K60">
         <f t="shared" ca="1" si="26"/>
-        <v>0.5234693877551021</v>
+        <v>0.9965948275862071</v>
       </c>
       <c r="L60">
         <f t="shared" ca="1" si="26"/>
-        <v>0.61836734693877549</v>
+        <v>1.0651436781609196</v>
       </c>
       <c r="M60">
         <f t="shared" ca="1" si="26"/>
-        <v>0.63979591836734695</v>
+        <v>1.1136551724137931</v>
       </c>
       <c r="N60">
         <f t="shared" ca="1" si="26"/>
-        <v>0.7567346938775511</v>
+        <v>1.2781724137931036</v>
       </c>
       <c r="O60">
         <f t="shared" ca="1" si="26"/>
-        <v>0.79591836734693877</v>
+        <v>1.3846867816091957</v>
       </c>
       <c r="P60">
         <f t="shared" ca="1" si="26"/>
-        <v>0.84857142857142864</v>
+        <v>1.4321436781609196</v>
       </c>
       <c r="Q60">
         <f t="shared" ca="1" si="26"/>
-        <v>0.89081632653061216</v>
+        <v>1.5977155172413795</v>
       </c>
       <c r="R60">
         <f t="shared" ca="1" si="26"/>
-        <v>0.94040816326530607</v>
+        <v>1.7211034482758623</v>
       </c>
       <c r="S60">
         <f t="shared" ca="1" si="26"/>
-        <v>1.0199999999999998</v>
+        <v>1.8107442528735636</v>
       </c>
       <c r="T60">
         <f t="shared" ca="1" si="26"/>
-        <v>1.0469387755102042</v>
+        <v>1.9742068965517245</v>
       </c>
       <c r="U60">
         <f t="shared" ca="1" si="26"/>
-        <v>1.1516326530612244</v>
+        <v>1.9035488505747127</v>
       </c>
       <c r="V60">
         <f t="shared" ca="1" si="26"/>
-        <v>1.1632653061224489</v>
+        <v>2.024827586206897</v>
       </c>
       <c r="X60">
         <f t="shared" ca="1" si="28"/>
-        <v>15.688936627282494</v>
+        <v>27.854700544464613</v>
       </c>
     </row>
     <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61">
         <f t="shared" ca="1" si="27"/>
-        <v>5.3275862068965514E-2</v>
+        <v>8.120729813664597E-2</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="26"/>
-        <v>0.10655172413793103</v>
+        <v>0.16241459627329194</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="26"/>
-        <v>0.15362068965517242</v>
+        <v>0.24875077639751561</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="26"/>
-        <v>0.20689655172413793</v>
+        <v>0.35902173913043484</v>
       </c>
       <c r="G61">
         <f t="shared" ca="1" si="26"/>
-        <v>0.26120689655172413</v>
+        <v>0.4145846273291926</v>
       </c>
       <c r="H61">
         <f t="shared" ca="1" si="26"/>
-        <v>0.29482758620689659</v>
+        <v>0.49237267080745356</v>
       </c>
       <c r="I61">
         <f t="shared" ca="1" si="26"/>
-        <v>0.35120689655172421</v>
+        <v>0.62828804347826095</v>
       </c>
       <c r="J61">
         <f t="shared" ca="1" si="26"/>
-        <v>0.43448275862068964</v>
+        <v>0.67017391304347829</v>
       </c>
       <c r="K61">
         <f t="shared" ca="1" si="26"/>
-        <v>0.44689655172413789</v>
+        <v>0.7462523291925468</v>
       </c>
       <c r="L61">
         <f t="shared" ca="1" si="26"/>
-        <v>0.50689655172413794</v>
+        <v>0.81207298136645978</v>
       </c>
       <c r="M61">
         <f t="shared" ca="1" si="26"/>
-        <v>0.59172413793103451</v>
+        <v>0.89328027950310585</v>
       </c>
       <c r="N61">
         <f t="shared" ca="1" si="26"/>
-        <v>0.60827586206896556</v>
+        <v>0.97448757763975191</v>
       </c>
       <c r="O61">
         <f t="shared" ca="1" si="26"/>
-        <v>0.6925862068965517</v>
+        <v>1.0890326086956523</v>
       </c>
       <c r="P61">
         <f t="shared" ca="1" si="26"/>
-        <v>0.72413793103448287</v>
+        <v>1.1967391304347827</v>
       </c>
       <c r="Q61">
         <f t="shared" ca="1" si="26"/>
-        <v>0.7448275862068966</v>
+        <v>1.2950427018633544</v>
       </c>
       <c r="R61">
         <f t="shared" ca="1" si="26"/>
-        <v>0.86896551724137927</v>
+        <v>1.3129937888198759</v>
       </c>
       <c r="S61">
         <f t="shared" ca="1" si="26"/>
-        <v>0.83534482758620698</v>
+        <v>1.409587732919255</v>
       </c>
       <c r="T61">
         <f t="shared" ca="1" si="26"/>
-        <v>0.91241379310344828</v>
+        <v>1.584824534161491</v>
       </c>
       <c r="U61">
         <f t="shared" ca="1" si="26"/>
-        <v>1.0024137931034482</v>
+        <v>1.5429386645962735</v>
       </c>
       <c r="V61">
         <f t="shared" ca="1" si="26"/>
-        <v>1.0241379310344829</v>
+        <v>1.6241459627329196</v>
       </c>
       <c r="X61">
         <f t="shared" ca="1" si="28"/>
-        <v>13.720922997148044</v>
+        <v>22.141173586139267</v>
       </c>
     </row>
     <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62">
         <f t="shared" ca="1" si="27"/>
-        <v>4.0263157894736848E-2</v>
+        <v>6.1993243243243255E-2</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="26"/>
-        <v>7.5000000000000011E-2</v>
+        <v>0.11902702702702705</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="26"/>
-        <v>0.12315789473684212</v>
+        <v>0.19341891891891894</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="26"/>
-        <v>0.15000000000000002</v>
+        <v>0.24053378378378382</v>
       </c>
       <c r="G62">
         <f t="shared" ca="1" si="26"/>
-        <v>0.19736842105263158</v>
+        <v>0.30066722972972976</v>
       </c>
       <c r="H62">
         <f t="shared" ca="1" si="26"/>
-        <v>0.24631578947368424</v>
+        <v>0.36080067567567575</v>
       </c>
       <c r="I62">
         <f t="shared" ca="1" si="26"/>
-        <v>0.28460526315789475</v>
+        <v>0.43829222972972981</v>
       </c>
       <c r="J62">
         <f t="shared" ca="1" si="26"/>
-        <v>0.30947368421052635</v>
+        <v>0.48106756756756763</v>
       </c>
       <c r="K62">
         <f t="shared" ca="1" si="26"/>
-        <v>0.34460526315789475</v>
+        <v>0.58583614864864875</v>
       </c>
       <c r="L62">
         <f t="shared" ca="1" si="26"/>
-        <v>0.39473684210526316</v>
+        <v>0.63233108108108116</v>
       </c>
       <c r="M62">
         <f t="shared" ca="1" si="26"/>
-        <v>0.43855263157894736</v>
+        <v>0.67510641891891898</v>
       </c>
       <c r="N62">
         <f t="shared" ca="1" si="26"/>
-        <v>0.45473684210526316</v>
+        <v>0.74391891891891904</v>
       </c>
       <c r="O62">
         <f t="shared" ca="1" si="26"/>
-        <v>0.50802631578947377</v>
+        <v>0.80591216216216222</v>
       </c>
       <c r="P62">
         <f t="shared" ca="1" si="26"/>
-        <v>0.56368421052631579</v>
+        <v>0.87658445945945962</v>
       </c>
       <c r="Q62">
         <f t="shared" ca="1" si="26"/>
-        <v>0.5625</v>
+        <v>0.93919763513513532</v>
       </c>
       <c r="R62">
         <f t="shared" ca="1" si="26"/>
-        <v>0.63157894736842113</v>
+        <v>1.0117297297297299</v>
       </c>
       <c r="S62">
         <f t="shared" ca="1" si="26"/>
-        <v>0.69789473684210535</v>
+        <v>1.106579391891892</v>
       </c>
       <c r="T62">
         <f t="shared" ca="1" si="26"/>
-        <v>0.67500000000000004</v>
+        <v>1.1270371621621624</v>
       </c>
       <c r="U62">
         <f t="shared" ca="1" si="26"/>
-        <v>0.71250000000000002</v>
+        <v>1.2249864864864866</v>
       </c>
       <c r="V62">
         <f t="shared" ca="1" si="26"/>
-        <v>0.82105263157894737</v>
+        <v>1.3018581081081082</v>
       </c>
       <c r="X62">
         <f t="shared" ca="1" si="28"/>
-        <v>10.429125445191929</v>
+        <v>17.214669105195423</v>
       </c>
     </row>
     <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63">
         <f t="shared" ca="1" si="27"/>
-        <v>3.2484375000000003E-2</v>
+        <v>5.0677539062500006E-2</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="26"/>
-        <v>6.8906250000000002E-2</v>
+        <v>9.7341015624999999E-2</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="26"/>
-        <v>9.6468749999999992E-2</v>
+        <v>0.14300097656249999</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="26"/>
-        <v>0.1273125</v>
+        <v>0.19869609375</v>
       </c>
       <c r="G63">
         <f t="shared" ca="1" si="26"/>
-        <v>0.15914062500000001</v>
+        <v>0.24586132812500003</v>
       </c>
       <c r="H63">
         <f t="shared" ca="1" si="26"/>
-        <v>0.19293749999999998</v>
+        <v>0.28600195312499999</v>
       </c>
       <c r="I63">
         <f t="shared" ca="1" si="26"/>
-        <v>0.2205</v>
+        <v>0.36176738281250004</v>
       </c>
       <c r="J63">
         <f t="shared" ca="1" si="26"/>
-        <v>0.27562500000000001</v>
+        <v>0.3893640625</v>
       </c>
       <c r="K63">
         <f t="shared" ca="1" si="26"/>
-        <v>0.28054687499999997</v>
+        <v>0.46061367187499996</v>
       </c>
       <c r="L63">
         <f t="shared" ca="1" si="26"/>
-        <v>0.33140625000000001</v>
+        <v>0.51179296875000002</v>
       </c>
       <c r="M63">
         <f t="shared" ca="1" si="26"/>
-        <v>0.37898437499999998</v>
+        <v>0.55745292968750004</v>
       </c>
       <c r="N63">
         <f t="shared" ca="1" si="26"/>
-        <v>0.39768749999999997</v>
+        <v>0.62619374999999999</v>
       </c>
       <c r="O63">
         <f t="shared" ca="1" si="26"/>
-        <v>0.44362499999999999</v>
+        <v>0.65228515625000005</v>
       </c>
       <c r="P63">
         <f t="shared" ca="1" si="26"/>
-        <v>0.45937499999999998</v>
+        <v>0.68138710937500002</v>
       </c>
       <c r="Q63">
         <f t="shared" ca="1" si="26"/>
-        <v>0.48726562499999998</v>
+        <v>0.71500488281249996</v>
       </c>
       <c r="R63">
         <f t="shared" ca="1" si="26"/>
-        <v>0.49875000000000003</v>
+        <v>0.81886875000000003</v>
       </c>
       <c r="S63">
         <f t="shared" ca="1" si="26"/>
-        <v>0.56339062499999992</v>
+        <v>0.84445839843750004</v>
       </c>
       <c r="T63">
         <f t="shared" ca="1" si="26"/>
-        <v>0.60834374999999996</v>
+        <v>0.93929062499999993</v>
       </c>
       <c r="U63">
         <f t="shared" ca="1" si="26"/>
-        <v>0.64837499999999992</v>
+        <v>0.94380644531250002</v>
       </c>
       <c r="V63">
         <f t="shared" ca="1" si="26"/>
-        <v>0.63</v>
+        <v>0.95333984375000014</v>
       </c>
       <c r="X63">
         <f t="shared" ca="1" si="28"/>
-        <v>8.791315789473682</v>
+        <v>13.260792489035087</v>
       </c>
     </row>
     <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64">
         <f t="shared" ca="1" si="27"/>
-        <v>2.3769230769230768E-2</v>
+        <v>3.3641666666666674E-2</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="26"/>
-        <v>4.8461538461538459E-2</v>
+        <v>6.4564814814814825E-2</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="26"/>
-        <v>6.576923076923076E-2</v>
+        <v>0.10500277777777779</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="26"/>
-        <v>8.9538461538461525E-2</v>
+        <v>0.13592592592592595</v>
       </c>
       <c r="G64">
         <f t="shared" ca="1" si="26"/>
-        <v>0.11999999999999998</v>
+        <v>0.16311111111111112</v>
       </c>
       <c r="H64">
         <f t="shared" ca="1" si="26"/>
-        <v>0.13153846153846152</v>
+        <v>0.20592777777777782</v>
       </c>
       <c r="I64">
         <f t="shared" ca="1" si="26"/>
-        <v>0.16799999999999998</v>
+        <v>0.23311296296296299</v>
       </c>
       <c r="J64">
         <f t="shared" ca="1" si="26"/>
-        <v>0.18646153846153846</v>
+        <v>0.2718518518518519</v>
       </c>
       <c r="K64">
         <f t="shared" ca="1" si="26"/>
-        <v>0.20146153846153844</v>
+        <v>0.30277500000000007</v>
       </c>
       <c r="L64">
         <f t="shared" ca="1" si="26"/>
-        <v>0.23076923076923073</v>
+        <v>0.33301851851851855</v>
       </c>
       <c r="M64">
         <f t="shared" ca="1" si="26"/>
-        <v>0.24369230769230762</v>
+        <v>0.38127222222222229</v>
       </c>
       <c r="N64">
         <f t="shared" ca="1" si="26"/>
-        <v>0.26584615384615379</v>
+        <v>0.39962222222222227</v>
       </c>
       <c r="O64">
         <f t="shared" ca="1" si="26"/>
-        <v>0.30599999999999999</v>
+        <v>0.44617685185185191</v>
       </c>
       <c r="P64">
         <f t="shared" ca="1" si="26"/>
-        <v>0.3295384615384615</v>
+        <v>0.49001296296296304</v>
       </c>
       <c r="Q64">
         <f t="shared" ca="1" si="26"/>
-        <v>0.33230769230769225</v>
+        <v>0.4893333333333334</v>
       </c>
       <c r="R64">
         <f t="shared" ca="1" si="26"/>
-        <v>0.36553846153846148</v>
+        <v>0.5165185185185186</v>
       </c>
       <c r="S64">
         <f t="shared" ca="1" si="26"/>
-        <v>0.37269230769230771</v>
+        <v>0.56613148148148151</v>
       </c>
       <c r="T64">
         <f t="shared" ca="1" si="26"/>
-        <v>0.41953846153846153</v>
+        <v>0.60555000000000014</v>
       </c>
       <c r="U64">
         <f t="shared" ca="1" si="26"/>
-        <v>0.44284615384615378</v>
+        <v>0.65210462962962967</v>
       </c>
       <c r="V64">
         <f t="shared" ca="1" si="26"/>
-        <v>0.45692307692307682</v>
+        <v>0.67962962962962969</v>
       </c>
       <c r="X64">
         <f t="shared" ca="1" si="28"/>
-        <v>6.0880971659919032</v>
+        <v>8.9843971038707888</v>
       </c>
     </row>
     <row r="65" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C65">
         <f t="shared" ca="1" si="27"/>
-        <v>1.3363636363636362E-2</v>
+        <v>1.8996126760563382E-2</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="26"/>
-        <v>2.809090909090909E-2</v>
+        <v>3.9155281690140847E-2</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="26"/>
-        <v>4.1727272727272717E-2</v>
+        <v>5.9895950704225355E-2</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="26"/>
-        <v>5.7272727272727267E-2</v>
+        <v>8.1411971830985919E-2</v>
       </c>
       <c r="G65">
         <f t="shared" ca="1" si="26"/>
-        <v>6.6818181818181818E-2</v>
+        <v>9.4011443661971839E-2</v>
       </c>
       <c r="H65">
         <f t="shared" ca="1" si="26"/>
-        <v>8.5090909090909078E-2</v>
+        <v>0.12211795774647888</v>
       </c>
       <c r="I65">
         <f t="shared" ca="1" si="26"/>
-        <v>9.0681818181818169E-2</v>
+        <v>0.13568661971830989</v>
       </c>
       <c r="J65">
         <f t="shared" ca="1" si="26"/>
-        <v>0.10581818181818181</v>
+        <v>0.14731690140845072</v>
       </c>
       <c r="K65">
         <f t="shared" ca="1" si="26"/>
-        <v>0.11904545454545454</v>
+        <v>0.17096514084507045</v>
       </c>
       <c r="L65">
         <f t="shared" ca="1" si="26"/>
-        <v>0.13909090909090907</v>
+        <v>0.1938380281690141</v>
       </c>
       <c r="M65">
         <f t="shared" ca="1" si="26"/>
-        <v>0.153</v>
+        <v>0.2089573943661972</v>
       </c>
       <c r="N65">
         <f t="shared" ca="1" si="26"/>
-        <v>0.16854545454545453</v>
+        <v>0.23493169014084508</v>
       </c>
       <c r="O65">
         <f t="shared" ca="1" si="26"/>
-        <v>0.17372727272727273</v>
+        <v>0.25702922535211264</v>
       </c>
       <c r="P65">
         <f t="shared" ca="1" si="26"/>
-        <v>0.18136363636363634</v>
+        <v>0.26865950704225361</v>
       </c>
       <c r="Q65">
         <f t="shared" ca="1" si="26"/>
-        <v>0.20863636363636362</v>
+        <v>0.29657218309859157</v>
       </c>
       <c r="R65">
         <f t="shared" ca="1" si="26"/>
-        <v>0.2138181818181818</v>
+        <v>0.30393802816901411</v>
       </c>
       <c r="S65">
         <f t="shared" ca="1" si="26"/>
-        <v>0.22486363636363632</v>
+        <v>0.3196389084507042</v>
       </c>
       <c r="T65">
         <f t="shared" ca="1" si="26"/>
-        <v>0.25772727272727275</v>
+        <v>0.34541936619718311</v>
       </c>
       <c r="U65">
         <f t="shared" ca="1" si="26"/>
-        <v>0.25650000000000001</v>
+        <v>0.37197517605633806</v>
       </c>
       <c r="V65">
         <f t="shared" ca="1" si="26"/>
-        <v>0.25909090909090909</v>
+        <v>0.37216901408450709</v>
       </c>
       <c r="X65">
         <f t="shared" ca="1" si="28"/>
-        <v>3.5761585782638408</v>
+        <v>5.0754277242401793</v>
       </c>
     </row>
     <row r="66" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C66">
         <f t="shared" ca="1" si="27"/>
-        <v>1.3636363636363636E-2</v>
+        <v>1.8996126760563382E-2</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="26"/>
-        <v>2.6727272727272725E-2</v>
+        <v>3.9930633802816903E-2</v>
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="26"/>
-        <v>4.2136363636363632E-2</v>
+        <v>6.0477464788732394E-2</v>
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="26"/>
-        <v>5.4545454545454543E-2</v>
+        <v>8.1411971830985919E-2</v>
       </c>
       <c r="G66">
         <f t="shared" ca="1" si="26"/>
-        <v>6.8181818181818177E-2</v>
+        <v>0.10079577464788733</v>
       </c>
       <c r="H66">
         <f t="shared" ca="1" si="26"/>
-        <v>7.9363636363636345E-2</v>
+        <v>0.12095492957746479</v>
       </c>
       <c r="I66">
         <f t="shared" ca="1" si="26"/>
-        <v>9.8318181818181805E-2</v>
+        <v>0.14247095070422539</v>
       </c>
       <c r="J66">
         <f t="shared" ca="1" si="26"/>
-        <v>0.11236363636363636</v>
+        <v>0.1581718309859155</v>
       </c>
       <c r="K66">
         <f t="shared" ca="1" si="26"/>
-        <v>0.11781818181818182</v>
+        <v>0.17096514084507045</v>
       </c>
       <c r="L66">
         <f t="shared" ca="1" si="26"/>
-        <v>0.14045454545454544</v>
+        <v>0.1938380281690141</v>
       </c>
       <c r="M66">
         <f t="shared" ca="1" si="26"/>
-        <v>0.14249999999999999</v>
+        <v>0.21748626760563383</v>
       </c>
       <c r="N66">
         <f t="shared" ca="1" si="26"/>
-        <v>0.16363636363636361</v>
+        <v>0.24190985915492957</v>
       </c>
       <c r="O66">
         <f t="shared" ca="1" si="26"/>
-        <v>0.18436363636363637</v>
+        <v>0.24442975352112672</v>
       </c>
       <c r="P66">
         <f t="shared" ca="1" si="26"/>
-        <v>0.18136363636363634</v>
+        <v>0.27951443661971836</v>
       </c>
       <c r="Q66">
         <f t="shared" ca="1" si="26"/>
-        <v>0.19431818181818181</v>
+        <v>0.28203433098591552</v>
       </c>
       <c r="R66">
         <f t="shared" ca="1" si="26"/>
-        <v>0.22909090909090907</v>
+        <v>0.31014084507042256</v>
       </c>
       <c r="S66">
         <f t="shared" ca="1" si="26"/>
-        <v>0.24109090909090905</v>
+        <v>0.33281989436619719</v>
       </c>
       <c r="T66">
         <f t="shared" ca="1" si="26"/>
-        <v>0.25281818181818183</v>
+        <v>0.34193028169014089</v>
       </c>
       <c r="U66">
         <f t="shared" ca="1" si="26"/>
-        <v>0.26945454545454545</v>
+        <v>0.38670686619718314</v>
       </c>
       <c r="V66">
         <f t="shared" ca="1" si="26"/>
-        <v>0.26181818181818178</v>
+        <v>0.3954295774647888</v>
       </c>
       <c r="X66">
         <f t="shared" ca="1" si="28"/>
-        <v>3.6716883116883117</v>
+        <v>5.1964137456316859</v>
       </c>
     </row>
     <row r="67" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C67">
         <f t="shared" ca="1" si="27"/>
-        <v>3.7499999999999994E-3</v>
+        <v>5.1473917322834642E-3</v>
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="26"/>
-        <v>8.2105263157894719E-3</v>
+        <v>1.0294783464566928E-2</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="26"/>
-        <v>1.1605263157894737E-2</v>
+        <v>1.5604724409448821E-2</v>
       </c>
       <c r="F67">
         <f t="shared" ca="1" si="26"/>
-        <v>1.6105263157894734E-2</v>
+        <v>2.1673228346456692E-2</v>
       </c>
       <c r="G67">
         <f t="shared" ca="1" si="26"/>
-        <v>1.9144736842105263E-2</v>
+        <v>2.5736958661417324E-2</v>
       </c>
       <c r="H67">
         <f t="shared" ca="1" si="26"/>
-        <v>2.2973684210526316E-2</v>
+        <v>3.0884350393700789E-2</v>
       </c>
       <c r="I67">
         <f t="shared" ca="1" si="26"/>
-        <v>2.7907894736842104E-2</v>
+        <v>3.7169586614173231E-2</v>
       </c>
       <c r="J67">
         <f t="shared" ca="1" si="26"/>
-        <v>3.2210526315789467E-2</v>
+        <v>4.4646850393700789E-2</v>
       </c>
       <c r="K67">
         <f t="shared" ca="1" si="26"/>
-        <v>3.588157894736841E-2</v>
+        <v>4.6326525590551185E-2</v>
       </c>
       <c r="L67">
         <f t="shared" ca="1" si="26"/>
-        <v>3.8289473684210526E-2</v>
+        <v>5.1473917322834649E-2</v>
       </c>
       <c r="M67">
         <f t="shared" ca="1" si="26"/>
-        <v>4.3421052631578944E-2</v>
+        <v>5.9005364173228346E-2</v>
       </c>
       <c r="N67">
         <f t="shared" ca="1" si="26"/>
-        <v>4.9736842105263163E-2</v>
+        <v>6.8270669291338584E-2</v>
       </c>
       <c r="O67">
         <f t="shared" ca="1" si="26"/>
-        <v>4.9776315789473682E-2</v>
+        <v>7.3959891732283456E-2</v>
       </c>
       <c r="P67">
         <f t="shared" ca="1" si="26"/>
-        <v>5.8026315789473683E-2</v>
+        <v>7.3580610236220478E-2</v>
       </c>
       <c r="Q67">
         <f t="shared" ca="1" si="26"/>
-        <v>6.0986842105263152E-2</v>
+        <v>7.8023622047244112E-2</v>
       </c>
       <c r="R67">
         <f t="shared" ca="1" si="26"/>
-        <v>6.3157894736842093E-2</v>
+        <v>8.7559842519685044E-2</v>
       </c>
       <c r="S67">
         <f t="shared" ca="1" si="26"/>
-        <v>6.7105263157894737E-2</v>
+        <v>9.5795669291338578E-2</v>
       </c>
       <c r="T67">
         <f t="shared" ca="1" si="26"/>
-        <v>7.0342105263157886E-2</v>
+        <v>9.5578937007874024E-2</v>
       </c>
       <c r="U67">
         <f t="shared" ca="1" si="26"/>
-        <v>7.4249999999999997E-2</v>
+        <v>0.10706574803149607</v>
       </c>
       <c r="V67">
         <f t="shared" ca="1" si="26"/>
-        <v>7.6578947368421052E-2</v>
+        <v>0.11053346456692914</v>
       </c>
       <c r="X67">
         <f t="shared" ca="1" si="28"/>
-        <v>1.0470360110803325</v>
+        <v>1.4816557634243088</v>
       </c>
     </row>
   </sheetData>
